--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1347160.597508375</v>
+        <v>1341223.338573913</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6022252.490924749</v>
+        <v>6022252.490924748</v>
       </c>
     </row>
     <row r="8">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>46.21381930780605</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>137.1942568889566</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>30.46629428701338</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>165.7049744632695</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>195.4657767888531</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.5764413713661</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.3264850598357</v>
       </c>
       <c r="H12" t="n">
-        <v>102.4130552381122</v>
+        <v>25.54376513914276</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.0653756114814</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.1383338073118</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.646378425424</v>
       </c>
       <c r="I13" t="n">
         <v>129.8090978073119</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>138.9553468683258</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>89.79546121291494</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>178.0029865103209</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>183.4080761967627</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>46.21381930780605</v>
+      </c>
+      <c r="F14" t="n">
         <v>208.2289693423736</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>208.2289693423736</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>137.1942568889566</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>64.81568955361107</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.3264850598357</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>102.4130552381122</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>54.38039595890082</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>115.7255402437573</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.52183873886721</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>31.56902386375175</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.1383338073118</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.646378425424</v>
       </c>
       <c r="I16" t="n">
         <v>129.8090978073119</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1850,61 +1850,61 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>208.2289693423736</v>
       </c>
       <c r="H17" t="n">
+        <v>208.2289693423736</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>183.4080761967626</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.01263040099575</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>152.7922458503604</v>
       </c>
       <c r="T18" t="n">
-        <v>196.0653756114814</v>
+        <v>107.8320863929662</v>
       </c>
       <c r="U18" t="n">
         <v>208.2289693423736</v>
       </c>
       <c r="V18" t="n">
-        <v>208.2289693423736</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>5.766793676298687</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.576096014825328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>16.16125509813474</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>208.2289693423736</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="X19" t="n">
         <v>208.2289693423736</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>208.2289693423736</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>228.9096975757891</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>30.46629428701338</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>165.7049744632695</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.7749793984341</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>243.0045008280772</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>41.51098238003921</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.01263040099575</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>152.7922458503604</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>196.0653756114814</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8744720741738</v>
+        <v>205.4953475446511</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>16.80441853582596</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1383338073118</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>154.646378425424</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>129.8090978073119</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>138.9553468683258</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>209.1573114774386</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>13.7239473655772</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>278.6634921770122</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.7749793984341</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>47.38167480099367</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.72468717442684</v>
+        <v>43.72468717442662</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.4019105212579</v>
@@ -2573,7 +2573,7 @@
         <v>320.0079576647227</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>137.1942568889566</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S26" t="n">
         <v>165.7049744632695</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7749793984341</v>
+        <v>30.71113255930366</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1935867483263</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>131.436083609968</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>224.3024675279264</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2725214173374</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>35.35322228260132</v>
+        <v>45.38235195479086</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>308.0246141039339</v>
       </c>
       <c r="I29" t="n">
-        <v>137.1942568889566</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1935867483263</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>315.9229660580376</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>78.93534192652457</v>
       </c>
       <c r="T31" t="n">
-        <v>93.81605657301112</v>
+        <v>224.3024675279264</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2725214173374</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,13 +3029,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>125.2059614439494</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>178.8604096838442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1383338073118</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154.646378425424</v>
+        <v>9.589809080917545</v>
       </c>
       <c r="I34" t="n">
-        <v>129.8090978073119</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.07713965058354</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,28 +3229,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.76460532792584</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>138.9553468683258</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>169.7040823370003</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2725214173374</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>369.1718992365068</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>30.46629428701338</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1935867483263</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>320.125037752033</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>81.63377565975136</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>54.38039595890082</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.01263040099575</v>
       </c>
       <c r="S36" t="n">
-        <v>152.7922458503604</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>196.0653756114814</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.8796366246888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154.646378425424</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>119.3320972778253</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>138.9553468683258</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>224.3024675279264</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>176.5277333147664</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4019105212579</v>
+        <v>258.3115600492599</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>226.3651046762741</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>144.9054398357002</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>196.967754709917</v>
       </c>
     </row>
     <row r="40">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>111.6630321589233</v>
       </c>
       <c r="C40" t="n">
-        <v>35.35322228260183</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4019105212579</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.4723556395526</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>265.9469261499064</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>138.7301244972518</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>225.8744720741738</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>151.6023651376909</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3977,7 +3977,7 @@
         <v>129.6907691810268</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>129.6907691810268</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>114.2316294946483</v>
+      </c>
+      <c r="Y44" t="n">
         <v>129.6907691810268</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>129.6907691810268</v>
-      </c>
-      <c r="X44" t="n">
-        <v>114.2316294946484</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,56 +4056,56 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>129.6907691810268</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>114.2316294946483</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>129.6907691810268</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>129.6907691810268</v>
-      </c>
-      <c r="X45" t="n">
-        <v>129.6907691810268</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>114.2316294946484</v>
       </c>
     </row>
     <row r="46">
@@ -4144,58 +4144,58 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>114.2316294946483</v>
+      </c>
+      <c r="U46" t="n">
         <v>129.6907691810268</v>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
+      <c r="V46" t="n">
         <v>129.6907691810268</v>
       </c>
-      <c r="S46" t="n">
-        <v>114.2316294946484</v>
-      </c>
-      <c r="T46" t="n">
+      <c r="W46" t="n">
         <v>129.6907691810268</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.65831754738988</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="C11" t="n">
-        <v>16.65831754738988</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="D11" t="n">
-        <v>16.65831754738988</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="E11" t="n">
-        <v>16.65831754738988</v>
+        <v>786.235251806054</v>
       </c>
       <c r="F11" t="n">
-        <v>16.65831754738988</v>
+        <v>575.9029595410301</v>
       </c>
       <c r="G11" t="n">
-        <v>16.65831754738988</v>
+        <v>365.5706672760062</v>
       </c>
       <c r="H11" t="n">
-        <v>16.65831754738988</v>
+        <v>155.2383750109824</v>
       </c>
       <c r="I11" t="n">
-        <v>16.65831754738988</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="J11" t="n">
-        <v>164.5455330071895</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="K11" t="n">
-        <v>234.0329686027796</v>
+        <v>222.8049971963397</v>
       </c>
       <c r="L11" t="n">
-        <v>297.5893260603999</v>
+        <v>286.3613546539599</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9774571751467</v>
+        <v>492.5080343029098</v>
       </c>
       <c r="N11" t="n">
-        <v>508.6361436736586</v>
+        <v>601.1667208014217</v>
       </c>
       <c r="O11" t="n">
-        <v>597.9041988891632</v>
+        <v>690.4347760169263</v>
       </c>
       <c r="P11" t="n">
-        <v>639.5914178671918</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="Q11" t="n">
-        <v>832.9158773694943</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="R11" t="n">
-        <v>802.1418427361474</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="S11" t="n">
-        <v>634.7630806520367</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="T11" t="n">
-        <v>424.4307883870129</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="U11" t="n">
-        <v>226.9906098124137</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="V11" t="n">
-        <v>16.65831754738988</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="W11" t="n">
-        <v>16.65831754738988</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="X11" t="n">
-        <v>16.65831754738988</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.65831754738988</v>
+        <v>832.9158773694944</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.3308903506352</v>
+        <v>634.8700434185031</v>
       </c>
       <c r="C12" t="n">
-        <v>425.8778610695081</v>
+        <v>634.8700434185031</v>
       </c>
       <c r="D12" t="n">
-        <v>425.8778610695081</v>
+        <v>485.9356337572518</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6404060640526</v>
+        <v>326.6981787517963</v>
       </c>
       <c r="F12" t="n">
-        <v>120.1058480909376</v>
+        <v>180.1636207786813</v>
       </c>
       <c r="G12" t="n">
-        <v>120.1058480909376</v>
+        <v>42.46010051622096</v>
       </c>
       <c r="H12" t="n">
-        <v>16.65831754738988</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="I12" t="n">
-        <v>16.65831754738988</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="J12" t="n">
-        <v>16.65831754738988</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="K12" t="n">
         <v>222.8049971963397</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2532337353189</v>
+        <v>428.65355957457</v>
       </c>
       <c r="M12" t="n">
-        <v>418.6563522834434</v>
+        <v>543.0566781226945</v>
       </c>
       <c r="N12" t="n">
-        <v>550.4960258781805</v>
+        <v>674.8963517174316</v>
       </c>
       <c r="O12" t="n">
-        <v>648.8837750477522</v>
+        <v>773.2841008870033</v>
       </c>
       <c r="P12" t="n">
-        <v>832.9158773694943</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="Q12" t="n">
-        <v>832.9158773694943</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="R12" t="n">
-        <v>832.9158773694943</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="S12" t="n">
-        <v>832.9158773694943</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="T12" t="n">
-        <v>832.9158773694943</v>
+        <v>634.8700434185031</v>
       </c>
       <c r="U12" t="n">
-        <v>832.9158773694943</v>
+        <v>634.8700434185031</v>
       </c>
       <c r="V12" t="n">
-        <v>832.9158773694943</v>
+        <v>634.8700434185031</v>
       </c>
       <c r="W12" t="n">
-        <v>832.9158773694943</v>
+        <v>634.8700434185031</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9158773694943</v>
+        <v>634.8700434185031</v>
       </c>
       <c r="Y12" t="n">
-        <v>625.1555786045403</v>
+        <v>634.8700434185031</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="C13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="D13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="E13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="F13" t="n">
-        <v>181.189870535163</v>
+        <v>506.2249333965124</v>
       </c>
       <c r="G13" t="n">
-        <v>181.189870535163</v>
+        <v>337.3983335911469</v>
       </c>
       <c r="H13" t="n">
         <v>181.189870535163</v>
@@ -5197,10 +5197,10 @@
         <v>50.0695697196965</v>
       </c>
       <c r="J13" t="n">
-        <v>16.65831754738988</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="K13" t="n">
-        <v>92.68281193268783</v>
+        <v>92.6828119326878</v>
       </c>
       <c r="L13" t="n">
         <v>245.4944250315155</v>
@@ -5209,40 +5209,40 @@
         <v>417.0019683695791</v>
       </c>
       <c r="N13" t="n">
-        <v>589.8660620871246</v>
+        <v>589.8660620871248</v>
       </c>
       <c r="O13" t="n">
-        <v>733.5177359851187</v>
+        <v>733.5177359851189</v>
       </c>
       <c r="P13" t="n">
-        <v>832.9158773694943</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="Q13" t="n">
-        <v>832.9158773694943</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="R13" t="n">
-        <v>692.5569411388622</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="S13" t="n">
-        <v>482.2246488738383</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="T13" t="n">
-        <v>391.5221628001868</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="U13" t="n">
-        <v>181.189870535163</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="V13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="W13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="X13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>622.5835851044706</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="C14" t="n">
-        <v>437.3229020774376</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="D14" t="n">
-        <v>226.9906098124137</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="E14" t="n">
-        <v>16.65831754738989</v>
+        <v>786.235251806054</v>
       </c>
       <c r="F14" t="n">
-        <v>16.65831754738989</v>
+        <v>575.9029595410301</v>
       </c>
       <c r="G14" t="n">
-        <v>16.65831754738989</v>
+        <v>365.5706672760062</v>
       </c>
       <c r="H14" t="n">
-        <v>16.65831754738989</v>
+        <v>155.2383750109824</v>
       </c>
       <c r="I14" t="n">
         <v>16.65831754738989</v>
@@ -5318,10 +5318,10 @@
         <v>832.9158773694944</v>
       </c>
       <c r="X14" t="n">
-        <v>622.5835851044706</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="Y14" t="n">
-        <v>622.5835851044706</v>
+        <v>832.9158773694944</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>832.9158773694944</v>
+        <v>340.0457564897682</v>
       </c>
       <c r="C15" t="n">
-        <v>767.4454838809984</v>
+        <v>165.5927272086412</v>
       </c>
       <c r="D15" t="n">
-        <v>618.5110742197471</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="E15" t="n">
-        <v>459.2736192142916</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="F15" t="n">
-        <v>312.7390612411765</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="G15" t="n">
-        <v>175.0355409787162</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="H15" t="n">
-        <v>71.5880104351685</v>
+        <v>16.65831754738989</v>
       </c>
       <c r="I15" t="n">
         <v>16.65831754738989</v>
@@ -5361,19 +5361,19 @@
         <v>42.78139050863187</v>
       </c>
       <c r="L15" t="n">
-        <v>124.2296270476111</v>
+        <v>230.7339777574779</v>
       </c>
       <c r="M15" t="n">
-        <v>330.376306696561</v>
+        <v>345.1370963056024</v>
       </c>
       <c r="N15" t="n">
-        <v>536.5229863455108</v>
+        <v>476.9767699003394</v>
       </c>
       <c r="O15" t="n">
-        <v>742.6696659944607</v>
+        <v>575.3645190699112</v>
       </c>
       <c r="P15" t="n">
-        <v>832.9158773694944</v>
+        <v>634.9962955524023</v>
       </c>
       <c r="Q15" t="n">
         <v>832.9158773694944</v>
@@ -5397,10 +5397,10 @@
         <v>832.9158773694944</v>
       </c>
       <c r="X15" t="n">
-        <v>832.9158773694944</v>
+        <v>716.0213922747901</v>
       </c>
       <c r="Y15" t="n">
-        <v>832.9158773694944</v>
+        <v>508.2610935098362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.189870535163</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="C16" t="n">
-        <v>181.189870535163</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="D16" t="n">
-        <v>181.189870535163</v>
+        <v>801.0279744768159</v>
       </c>
       <c r="E16" t="n">
-        <v>181.189870535163</v>
+        <v>653.1148808944228</v>
       </c>
       <c r="F16" t="n">
-        <v>181.189870535163</v>
+        <v>506.2249333965124</v>
       </c>
       <c r="G16" t="n">
-        <v>181.189870535163</v>
+        <v>337.3983335911469</v>
       </c>
       <c r="H16" t="n">
         <v>181.189870535163</v>
@@ -5446,7 +5446,7 @@
         <v>417.0019683695791</v>
       </c>
       <c r="N16" t="n">
-        <v>589.8660620871249</v>
+        <v>589.8660620871248</v>
       </c>
       <c r="O16" t="n">
         <v>733.5177359851189</v>
@@ -5461,25 +5461,25 @@
         <v>832.9158773694944</v>
       </c>
       <c r="S16" t="n">
-        <v>622.5835851044706</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="T16" t="n">
-        <v>412.2512928394467</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="U16" t="n">
-        <v>201.9190005744229</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="V16" t="n">
-        <v>201.9190005744229</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="W16" t="n">
-        <v>201.9190005744229</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="X16" t="n">
-        <v>201.9190005744229</v>
+        <v>832.9158773694944</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.9190005744229</v>
+        <v>832.9158773694944</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>832.9158773694944</v>
+        <v>437.3229020774376</v>
       </c>
       <c r="C17" t="n">
-        <v>832.9158773694944</v>
+        <v>437.3229020774376</v>
       </c>
       <c r="D17" t="n">
-        <v>832.9158773694944</v>
+        <v>437.3229020774376</v>
       </c>
       <c r="E17" t="n">
-        <v>622.5835851044706</v>
+        <v>437.3229020774376</v>
       </c>
       <c r="F17" t="n">
-        <v>412.2512928394467</v>
+        <v>437.3229020774376</v>
       </c>
       <c r="G17" t="n">
-        <v>201.9190005744229</v>
+        <v>226.9906098124137</v>
       </c>
       <c r="H17" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="I17" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="J17" t="n">
-        <v>164.5455330071895</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="K17" t="n">
-        <v>186.0309789778368</v>
+        <v>222.8049971963397</v>
       </c>
       <c r="L17" t="n">
-        <v>249.587336435457</v>
+        <v>428.9516768452895</v>
       </c>
       <c r="M17" t="n">
-        <v>399.9774571751468</v>
+        <v>593.3019166774493</v>
       </c>
       <c r="N17" t="n">
-        <v>508.6361436736587</v>
+        <v>701.9606031759612</v>
       </c>
       <c r="O17" t="n">
-        <v>597.9041988891634</v>
+        <v>791.2286583914657</v>
       </c>
       <c r="P17" t="n">
-        <v>639.5914178671919</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="Q17" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="R17" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="S17" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="T17" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="U17" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="V17" t="n">
-        <v>832.9158773694944</v>
+        <v>647.6551943424614</v>
       </c>
       <c r="W17" t="n">
-        <v>832.9158773694944</v>
+        <v>437.3229020774376</v>
       </c>
       <c r="X17" t="n">
-        <v>832.9158773694944</v>
+        <v>437.3229020774376</v>
       </c>
       <c r="Y17" t="n">
-        <v>832.9158773694944</v>
+        <v>437.3229020774376</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.65831754738989</v>
+        <v>191.1113468285169</v>
       </c>
       <c r="C18" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="D18" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="E18" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="F18" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="G18" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="H18" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="I18" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="J18" t="n">
-        <v>111.0455502633925</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="K18" t="n">
-        <v>137.1686232246344</v>
+        <v>42.78139050863184</v>
       </c>
       <c r="L18" t="n">
-        <v>218.6168597636137</v>
+        <v>248.9280701575817</v>
       </c>
       <c r="M18" t="n">
-        <v>424.7635394125635</v>
+        <v>455.0747498065315</v>
       </c>
       <c r="N18" t="n">
-        <v>630.9102190615134</v>
+        <v>586.9144234012686</v>
       </c>
       <c r="O18" t="n">
-        <v>773.2841008870033</v>
+        <v>773.2841008870032</v>
       </c>
       <c r="P18" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="Q18" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="R18" t="n">
-        <v>795.5293820149533</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="S18" t="n">
-        <v>641.1937801459023</v>
+        <v>678.5802755004433</v>
       </c>
       <c r="T18" t="n">
-        <v>443.147946194911</v>
+        <v>569.6589761136088</v>
       </c>
       <c r="U18" t="n">
-        <v>232.8156539298872</v>
+        <v>359.3266838485849</v>
       </c>
       <c r="V18" t="n">
-        <v>22.48336166486331</v>
+        <v>359.3266838485849</v>
       </c>
       <c r="W18" t="n">
-        <v>16.65831754738989</v>
+        <v>359.3266838485849</v>
       </c>
       <c r="X18" t="n">
-        <v>16.65831754738989</v>
+        <v>359.3266838485849</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.65831754738989</v>
+        <v>359.3266838485849</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.27053574418315</v>
+        <v>185.5945004752968</v>
       </c>
       <c r="C19" t="n">
-        <v>20.27053574418315</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="D19" t="n">
-        <v>20.27053574418315</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="E19" t="n">
-        <v>20.27053574418315</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="F19" t="n">
-        <v>20.27053574418315</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="G19" t="n">
-        <v>20.27053574418315</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="H19" t="n">
-        <v>20.27053574418315</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="I19" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="J19" t="n">
-        <v>16.65831754738989</v>
+        <v>16.65831754738988</v>
       </c>
       <c r="K19" t="n">
-        <v>92.68281193268781</v>
+        <v>92.68281193268786</v>
       </c>
       <c r="L19" t="n">
-        <v>245.4944250315155</v>
+        <v>245.4944250315156</v>
       </c>
       <c r="M19" t="n">
-        <v>417.0019683695791</v>
+        <v>417.0019683695792</v>
       </c>
       <c r="N19" t="n">
         <v>589.8660620871248</v>
@@ -5689,34 +5689,34 @@
         <v>733.5177359851189</v>
       </c>
       <c r="P19" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="Q19" t="n">
-        <v>832.9158773694944</v>
+        <v>832.9158773694943</v>
       </c>
       <c r="R19" t="n">
-        <v>832.9158773694944</v>
+        <v>816.5913772703683</v>
       </c>
       <c r="S19" t="n">
-        <v>622.5835851044706</v>
+        <v>816.5913772703683</v>
       </c>
       <c r="T19" t="n">
-        <v>622.5835851044706</v>
+        <v>816.5913772703683</v>
       </c>
       <c r="U19" t="n">
-        <v>412.2512928394467</v>
+        <v>816.5913772703683</v>
       </c>
       <c r="V19" t="n">
-        <v>412.2512928394467</v>
+        <v>816.5913772703683</v>
       </c>
       <c r="W19" t="n">
-        <v>412.2512928394467</v>
+        <v>606.2590850053444</v>
       </c>
       <c r="X19" t="n">
-        <v>412.2512928394467</v>
+        <v>395.9267927403206</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.9190005744229</v>
+        <v>185.5945004752968</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43.02026418261935</v>
+        <v>1567.022637117633</v>
       </c>
       <c r="C20" t="n">
-        <v>43.02026418261935</v>
+        <v>1198.060120177222</v>
       </c>
       <c r="D20" t="n">
-        <v>43.02026418261935</v>
+        <v>839.7944215704712</v>
       </c>
       <c r="E20" t="n">
-        <v>43.02026418261935</v>
+        <v>454.0061689722269</v>
       </c>
       <c r="F20" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="G20" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="H20" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="I20" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="J20" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="K20" t="n">
-        <v>385.4096685987197</v>
+        <v>101.2732571049218</v>
       </c>
       <c r="L20" t="n">
-        <v>689.7211340228872</v>
+        <v>578.3142169674878</v>
       </c>
       <c r="M20" t="n">
-        <v>792.1092651376341</v>
+        <v>1110.689986227403</v>
       </c>
       <c r="N20" t="n">
-        <v>1324.485034397549</v>
+        <v>1643.065755487317</v>
       </c>
       <c r="O20" t="n">
-        <v>1790.745269063171</v>
+        <v>2109.32599015294</v>
       </c>
       <c r="P20" t="n">
-        <v>2151.013209130967</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="Q20" t="n">
-        <v>2151.013209130967</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="R20" t="n">
-        <v>2120.239174497621</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="S20" t="n">
-        <v>1952.86041241351</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="T20" t="n">
-        <v>1735.915988778728</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="U20" t="n">
-        <v>1490.456897033196</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="V20" t="n">
-        <v>1159.394009689625</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="W20" t="n">
-        <v>806.625354419511</v>
+        <v>1798.244553860855</v>
       </c>
       <c r="X20" t="n">
-        <v>433.1595961584311</v>
+        <v>1798.244553860855</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.02026418261935</v>
+        <v>1798.244553860855</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>714.110001335931</v>
+        <v>672.1797161035681</v>
       </c>
       <c r="C21" t="n">
-        <v>539.656972054804</v>
+        <v>497.7266868224411</v>
       </c>
       <c r="D21" t="n">
-        <v>390.7225623935527</v>
+        <v>348.7922771611899</v>
       </c>
       <c r="E21" t="n">
-        <v>231.4851073880972</v>
+        <v>189.5548221557344</v>
       </c>
       <c r="F21" t="n">
-        <v>84.95054941498219</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="G21" t="n">
-        <v>84.95054941498219</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="H21" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="I21" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="J21" t="n">
-        <v>137.4074968986219</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5305698598639</v>
+        <v>69.14333714386133</v>
       </c>
       <c r="L21" t="n">
-        <v>244.9788063988431</v>
+        <v>517.7235155332651</v>
       </c>
       <c r="M21" t="n">
-        <v>755.41607718149</v>
+        <v>958.0325910295769</v>
       </c>
       <c r="N21" t="n">
-        <v>1287.791846441404</v>
+        <v>1089.872264624314</v>
       </c>
       <c r="O21" t="n">
-        <v>1776.103291694938</v>
+        <v>1578.183709877848</v>
       </c>
       <c r="P21" t="n">
-        <v>2151.013209130967</v>
+        <v>1953.093627313877</v>
       </c>
       <c r="Q21" t="n">
-        <v>2151.013209130967</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="R21" t="n">
-        <v>2113.626713776426</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="S21" t="n">
-        <v>1959.291111907375</v>
+        <v>2151.013209130969</v>
       </c>
       <c r="T21" t="n">
-        <v>1761.245277956384</v>
+        <v>1952.967375179977</v>
       </c>
       <c r="U21" t="n">
-        <v>1533.089245558228</v>
+        <v>1745.396317054067</v>
       </c>
       <c r="V21" t="n">
-        <v>1297.937137326486</v>
+        <v>1510.244208822324</v>
       </c>
       <c r="W21" t="n">
-        <v>1297.937137326486</v>
+        <v>1256.006852094123</v>
       </c>
       <c r="X21" t="n">
-        <v>1090.085637120953</v>
+        <v>1048.15535188859</v>
       </c>
       <c r="Y21" t="n">
-        <v>882.3253383559991</v>
+        <v>840.3950531236362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.3640812492432</v>
+        <v>76.431516354926</v>
       </c>
       <c r="C22" t="n">
-        <v>844.3640812492432</v>
+        <v>76.431516354926</v>
       </c>
       <c r="D22" t="n">
-        <v>827.3899211120453</v>
+        <v>76.431516354926</v>
       </c>
       <c r="E22" t="n">
-        <v>679.4768275296522</v>
+        <v>76.431516354926</v>
       </c>
       <c r="F22" t="n">
-        <v>532.5868800317418</v>
+        <v>76.431516354926</v>
       </c>
       <c r="G22" t="n">
-        <v>363.7602802263763</v>
+        <v>76.431516354926</v>
       </c>
       <c r="H22" t="n">
-        <v>207.5518171703925</v>
+        <v>76.431516354926</v>
       </c>
       <c r="I22" t="n">
-        <v>76.43151635492596</v>
+        <v>76.431516354926</v>
       </c>
       <c r="J22" t="n">
-        <v>43.02026418261935</v>
+        <v>43.02026418261938</v>
       </c>
       <c r="K22" t="n">
         <v>119.0447585679173</v>
@@ -5917,7 +5917,7 @@
         <v>271.856371666745</v>
       </c>
       <c r="M22" t="n">
-        <v>443.3639150048086</v>
+        <v>443.3639150048085</v>
       </c>
       <c r="N22" t="n">
         <v>616.2280087223542</v>
@@ -5926,34 +5926,34 @@
         <v>759.8796826203483</v>
       </c>
       <c r="P22" t="n">
-        <v>859.2778240047238</v>
+        <v>859.2778240047237</v>
       </c>
       <c r="Q22" t="n">
-        <v>844.3640812492432</v>
+        <v>844.364081249243</v>
       </c>
       <c r="R22" t="n">
-        <v>844.3640812492432</v>
+        <v>704.0051450186108</v>
       </c>
       <c r="S22" t="n">
-        <v>844.3640812492432</v>
+        <v>492.7351334252385</v>
       </c>
       <c r="T22" t="n">
-        <v>844.3640812492432</v>
+        <v>478.8725603286958</v>
       </c>
       <c r="U22" t="n">
-        <v>844.3640812492432</v>
+        <v>478.8725603286958</v>
       </c>
       <c r="V22" t="n">
-        <v>844.3640812492432</v>
+        <v>478.8725603286958</v>
       </c>
       <c r="W22" t="n">
-        <v>844.3640812492432</v>
+        <v>478.8725603286958</v>
       </c>
       <c r="X22" t="n">
-        <v>844.3640812492432</v>
+        <v>478.8725603286958</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.3640812492432</v>
+        <v>258.0799811851657</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1909.710687529873</v>
+        <v>1628.232412603598</v>
       </c>
       <c r="C23" t="n">
-        <v>1540.748170589461</v>
+        <v>1259.269895663186</v>
       </c>
       <c r="D23" t="n">
-        <v>1182.482471982711</v>
+        <v>901.0041970564359</v>
       </c>
       <c r="E23" t="n">
-        <v>796.6942193844666</v>
+        <v>515.2159444581916</v>
       </c>
       <c r="F23" t="n">
         <v>515.2159444581916</v>
@@ -5990,10 +5990,10 @@
         <v>53.39552571710149</v>
       </c>
       <c r="K23" t="n">
-        <v>395.7849301332019</v>
+        <v>395.7849301332018</v>
       </c>
       <c r="L23" t="n">
-        <v>872.825889995768</v>
+        <v>872.8258899957679</v>
       </c>
       <c r="M23" t="n">
         <v>1420.232419268419</v>
@@ -6002,10 +6002,10 @@
         <v>1961.864560934795</v>
       </c>
       <c r="O23" t="n">
-        <v>2428.124795600418</v>
+        <v>2309.508345787278</v>
       </c>
       <c r="P23" t="n">
-        <v>2476.451826352772</v>
+        <v>2669.776285855075</v>
       </c>
       <c r="Q23" t="n">
         <v>2669.776285855075</v>
@@ -6017,22 +6017,22 @@
         <v>2669.776285855075</v>
       </c>
       <c r="T23" t="n">
-        <v>2669.776285855075</v>
+        <v>2452.831862220293</v>
       </c>
       <c r="U23" t="n">
-        <v>2669.776285855075</v>
+        <v>2452.831862220293</v>
       </c>
       <c r="V23" t="n">
-        <v>2669.776285855075</v>
+        <v>2452.831862220293</v>
       </c>
       <c r="W23" t="n">
-        <v>2669.776285855075</v>
+        <v>2452.831862220293</v>
       </c>
       <c r="X23" t="n">
-        <v>2296.310527593995</v>
+        <v>2404.971584643532</v>
       </c>
       <c r="Y23" t="n">
-        <v>2296.310527593995</v>
+        <v>2014.83225266772</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>349.4762694108875</v>
       </c>
       <c r="G24" t="n">
-        <v>211.7727491484279</v>
+        <v>211.7727491484278</v>
       </c>
       <c r="H24" t="n">
         <v>108.3252186048801</v>
@@ -6066,25 +6066,25 @@
         <v>53.39552571710149</v>
       </c>
       <c r="J24" t="n">
-        <v>53.39552571710149</v>
+        <v>147.782758433104</v>
       </c>
       <c r="K24" t="n">
-        <v>176.1349889206284</v>
+        <v>173.905831394346</v>
       </c>
       <c r="L24" t="n">
-        <v>624.7151673100321</v>
+        <v>622.4860097837498</v>
       </c>
       <c r="M24" t="n">
-        <v>1200.166298970656</v>
+        <v>1197.937141444374</v>
       </c>
       <c r="N24" t="n">
-        <v>1806.554923165512</v>
+        <v>1804.325765639229</v>
       </c>
       <c r="O24" t="n">
-        <v>2294.866368419046</v>
+        <v>2292.637210892763</v>
       </c>
       <c r="P24" t="n">
-        <v>2669.776285855075</v>
+        <v>2667.547128328792</v>
       </c>
       <c r="Q24" t="n">
         <v>2669.776285855075</v>
@@ -6148,7 +6148,7 @@
         <v>1853.518726032971</v>
       </c>
       <c r="K25" t="n">
-        <v>1929.543220418268</v>
+        <v>1929.543220418269</v>
       </c>
       <c r="L25" t="n">
         <v>2082.354833517096</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>794.2135743898091</v>
+        <v>2087.833487848004</v>
       </c>
       <c r="C26" t="n">
-        <v>794.2135743898091</v>
+        <v>2087.833487848004</v>
       </c>
       <c r="D26" t="n">
-        <v>794.2135743898091</v>
+        <v>1729.567789241253</v>
       </c>
       <c r="E26" t="n">
-        <v>794.2135743898091</v>
+        <v>1343.779536643009</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2135743898091</v>
+        <v>932.7936318534016</v>
       </c>
       <c r="G26" t="n">
-        <v>376.6358869945991</v>
+        <v>515.2159444581916</v>
       </c>
       <c r="H26" t="n">
-        <v>53.39552571710149</v>
+        <v>191.975583180694</v>
       </c>
       <c r="I26" t="n">
         <v>53.39552571710149</v>
@@ -6227,19 +6227,19 @@
         <v>53.39552571710149</v>
       </c>
       <c r="K26" t="n">
-        <v>395.7849301332019</v>
+        <v>83.84402081775931</v>
       </c>
       <c r="L26" t="n">
-        <v>872.825889995768</v>
+        <v>560.8849806803254</v>
       </c>
       <c r="M26" t="n">
-        <v>1420.232419268419</v>
+        <v>1108.291509952976</v>
       </c>
       <c r="N26" t="n">
-        <v>1961.864560934795</v>
+        <v>1649.923651619353</v>
       </c>
       <c r="O26" t="n">
-        <v>2428.124795600418</v>
+        <v>2116.183886284975</v>
       </c>
       <c r="P26" t="n">
         <v>2476.451826352772</v>
@@ -6254,22 +6254,22 @@
         <v>2471.623489137617</v>
       </c>
       <c r="T26" t="n">
-        <v>2254.679065502835</v>
+        <v>2440.602143118118</v>
       </c>
       <c r="U26" t="n">
-        <v>2000.948169797455</v>
+        <v>2440.602143118118</v>
       </c>
       <c r="V26" t="n">
-        <v>1669.885282453884</v>
+        <v>2440.602143118118</v>
       </c>
       <c r="W26" t="n">
-        <v>1317.11662718377</v>
+        <v>2087.833487848004</v>
       </c>
       <c r="X26" t="n">
-        <v>1184.352906365621</v>
+        <v>2087.833487848004</v>
       </c>
       <c r="Y26" t="n">
-        <v>794.2135743898091</v>
+        <v>2087.833487848004</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>978.6357213318365</v>
+        <v>978.6357213318369</v>
       </c>
       <c r="C27" t="n">
-        <v>804.1826920507095</v>
+        <v>804.1826920507099</v>
       </c>
       <c r="D27" t="n">
-        <v>655.2482823894582</v>
+        <v>655.2482823894586</v>
       </c>
       <c r="E27" t="n">
-        <v>496.0108273840026</v>
+        <v>496.0108273840032</v>
       </c>
       <c r="F27" t="n">
-        <v>349.4762694108875</v>
+        <v>349.4762694108881</v>
       </c>
       <c r="G27" t="n">
-        <v>211.7727491484279</v>
+        <v>211.7727491484278</v>
       </c>
       <c r="H27" t="n">
         <v>108.3252186048801</v>
@@ -6306,31 +6306,31 @@
         <v>53.39552571710149</v>
       </c>
       <c r="K27" t="n">
-        <v>79.51859867834347</v>
+        <v>341.3391833207962</v>
       </c>
       <c r="L27" t="n">
-        <v>528.0987770677473</v>
+        <v>789.9193617102001</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.549908728372</v>
+        <v>1365.370493370825</v>
       </c>
       <c r="N27" t="n">
-        <v>1709.938532923227</v>
+        <v>1971.759117565679</v>
       </c>
       <c r="O27" t="n">
-        <v>2198.249978176761</v>
+        <v>2460.070562819214</v>
       </c>
       <c r="P27" t="n">
-        <v>2573.15989561279</v>
+        <v>2669.776285855075</v>
       </c>
       <c r="Q27" t="n">
         <v>2669.776285855075</v>
       </c>
       <c r="R27" t="n">
-        <v>2632.389790500533</v>
+        <v>2632.389790500534</v>
       </c>
       <c r="S27" t="n">
-        <v>2478.054188631482</v>
+        <v>2478.054188631483</v>
       </c>
       <c r="T27" t="n">
         <v>2280.008354680491</v>
@@ -6342,10 +6342,10 @@
         <v>1816.700214050593</v>
       </c>
       <c r="W27" t="n">
-        <v>1562.462857322391</v>
+        <v>1562.462857322392</v>
       </c>
       <c r="X27" t="n">
-        <v>1354.611357116858</v>
+        <v>1354.611357116859</v>
       </c>
       <c r="Y27" t="n">
         <v>1146.851058351905</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2003.635365445306</v>
+        <v>1853.518726032971</v>
       </c>
       <c r="C28" t="n">
-        <v>2003.635365445306</v>
+        <v>1853.518726032971</v>
       </c>
       <c r="D28" t="n">
         <v>1853.518726032971</v>
@@ -6385,7 +6385,7 @@
         <v>1853.518726032971</v>
       </c>
       <c r="K28" t="n">
-        <v>1929.543220418268</v>
+        <v>1929.543220418269</v>
       </c>
       <c r="L28" t="n">
         <v>2082.354833517096</v>
@@ -6412,22 +6412,22 @@
         <v>2669.776285855075</v>
       </c>
       <c r="T28" t="n">
-        <v>2669.776285855075</v>
+        <v>2443.208136836967</v>
       </c>
       <c r="U28" t="n">
-        <v>2669.776285855075</v>
+        <v>2154.043973789152</v>
       </c>
       <c r="V28" t="n">
-        <v>2669.776285855075</v>
+        <v>1899.359485583265</v>
       </c>
       <c r="W28" t="n">
-        <v>2634.065960317093</v>
+        <v>1853.518726032971</v>
       </c>
       <c r="X28" t="n">
-        <v>2406.076409419076</v>
+        <v>1853.518726032971</v>
       </c>
       <c r="Y28" t="n">
-        <v>2185.283830275546</v>
+        <v>1853.518726032971</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>946.72635271935</v>
+        <v>1519.571355554061</v>
       </c>
       <c r="C29" t="n">
-        <v>577.7638357789383</v>
+        <v>1519.571355554061</v>
       </c>
       <c r="D29" t="n">
-        <v>577.7638357789383</v>
+        <v>1161.305656947311</v>
       </c>
       <c r="E29" t="n">
-        <v>191.975583180694</v>
+        <v>775.5174043490665</v>
       </c>
       <c r="F29" t="n">
-        <v>191.975583180694</v>
+        <v>364.531499559459</v>
       </c>
       <c r="G29" t="n">
-        <v>191.975583180694</v>
+        <v>364.531499559459</v>
       </c>
       <c r="H29" t="n">
-        <v>191.975583180694</v>
+        <v>53.39552571710149</v>
       </c>
       <c r="I29" t="n">
         <v>53.39552571710149</v>
@@ -6464,7 +6464,7 @@
         <v>53.39552571710149</v>
       </c>
       <c r="K29" t="n">
-        <v>277.1684803200617</v>
+        <v>277.1684803200618</v>
       </c>
       <c r="L29" t="n">
         <v>754.2094401826279</v>
@@ -6494,19 +6494,19 @@
         <v>2669.776285855075</v>
       </c>
       <c r="U29" t="n">
-        <v>2416.045390149694</v>
+        <v>2669.776285855075</v>
       </c>
       <c r="V29" t="n">
-        <v>2416.045390149694</v>
+        <v>2669.776285855075</v>
       </c>
       <c r="W29" t="n">
-        <v>2096.931283020363</v>
+        <v>2669.776285855075</v>
       </c>
       <c r="X29" t="n">
-        <v>1723.465524759283</v>
+        <v>2296.310527593995</v>
       </c>
       <c r="Y29" t="n">
-        <v>1333.326192783472</v>
+        <v>1906.171195618183</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>53.39552571710149</v>
       </c>
       <c r="K30" t="n">
-        <v>79.51859867834347</v>
+        <v>341.3391833207962</v>
       </c>
       <c r="L30" t="n">
-        <v>528.0987770677473</v>
+        <v>789.9193617102001</v>
       </c>
       <c r="M30" t="n">
-        <v>1002.246717153565</v>
+        <v>1365.370493370825</v>
       </c>
       <c r="N30" t="n">
-        <v>1608.63534134842</v>
+        <v>1971.759117565679</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.946786601954</v>
+        <v>2460.070562819214</v>
       </c>
       <c r="P30" t="n">
-        <v>2471.856704037983</v>
+        <v>2669.776285855075</v>
       </c>
       <c r="Q30" t="n">
         <v>2669.776285855075</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>372.4483480573441</v>
+        <v>53.39552571710149</v>
       </c>
       <c r="C31" t="n">
-        <v>203.5121651294372</v>
+        <v>53.39552571710149</v>
       </c>
       <c r="D31" t="n">
         <v>53.39552571710149</v>
@@ -6628,43 +6628,43 @@
         <v>282.2316332012271</v>
       </c>
       <c r="M31" t="n">
-        <v>453.7391765392907</v>
+        <v>453.7391765392906</v>
       </c>
       <c r="N31" t="n">
-        <v>626.6032702568364</v>
+        <v>626.6032702568361</v>
       </c>
       <c r="O31" t="n">
-        <v>770.2549441548305</v>
+        <v>770.2549441548302</v>
       </c>
       <c r="P31" t="n">
-        <v>869.653085539206</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="Q31" t="n">
-        <v>869.653085539206</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="R31" t="n">
-        <v>869.653085539206</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="S31" t="n">
-        <v>869.653085539206</v>
+        <v>789.9204169265546</v>
       </c>
       <c r="T31" t="n">
-        <v>774.889392031114</v>
+        <v>563.3522679084472</v>
       </c>
       <c r="U31" t="n">
-        <v>774.889392031114</v>
+        <v>274.1881048606316</v>
       </c>
       <c r="V31" t="n">
-        <v>774.889392031114</v>
+        <v>274.1881048606316</v>
       </c>
       <c r="W31" t="n">
-        <v>774.889392031114</v>
+        <v>274.1881048606316</v>
       </c>
       <c r="X31" t="n">
-        <v>774.889392031114</v>
+        <v>274.1881048606316</v>
       </c>
       <c r="Y31" t="n">
-        <v>554.0968128875838</v>
+        <v>53.39552571710149</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>780.6237412642638</v>
+        <v>923.9201450472976</v>
       </c>
       <c r="C32" t="n">
-        <v>411.661224323852</v>
+        <v>923.9201450472976</v>
       </c>
       <c r="D32" t="n">
-        <v>53.39552571710149</v>
+        <v>565.6544464405472</v>
       </c>
       <c r="E32" t="n">
-        <v>53.39552571710149</v>
+        <v>179.8661938423029</v>
       </c>
       <c r="F32" t="n">
-        <v>53.39552571710149</v>
+        <v>179.8661938423029</v>
       </c>
       <c r="G32" t="n">
-        <v>53.39552571710149</v>
+        <v>179.8661938423029</v>
       </c>
       <c r="H32" t="n">
         <v>53.39552571710149</v>
@@ -6701,19 +6701,19 @@
         <v>53.39552571710149</v>
       </c>
       <c r="K32" t="n">
-        <v>277.1684803200617</v>
+        <v>395.7849301332018</v>
       </c>
       <c r="L32" t="n">
-        <v>754.2094401826279</v>
+        <v>872.8258899957679</v>
       </c>
       <c r="M32" t="n">
-        <v>1301.615969455279</v>
+        <v>1420.232419268419</v>
       </c>
       <c r="N32" t="n">
-        <v>1843.248111121655</v>
+        <v>1961.864560934795</v>
       </c>
       <c r="O32" t="n">
-        <v>2309.508345787278</v>
+        <v>2428.124795600418</v>
       </c>
       <c r="P32" t="n">
         <v>2669.776285855075</v>
@@ -6737,13 +6737,13 @@
         <v>1700.659317087231</v>
       </c>
       <c r="W32" t="n">
-        <v>1347.890661817117</v>
+        <v>1700.659317087231</v>
       </c>
       <c r="X32" t="n">
-        <v>1167.223581328386</v>
+        <v>1700.659317087231</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.223581328386</v>
+        <v>1310.519985111419</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>349.4762694108875</v>
       </c>
       <c r="G33" t="n">
-        <v>211.7727491484279</v>
+        <v>211.7727491484278</v>
       </c>
       <c r="H33" t="n">
         <v>108.3252186048801</v>
@@ -6777,25 +6777,25 @@
         <v>53.39552571710149</v>
       </c>
       <c r="J33" t="n">
-        <v>53.39552571710149</v>
+        <v>147.782758433104</v>
       </c>
       <c r="K33" t="n">
-        <v>176.1349889206284</v>
+        <v>345.3473489539611</v>
       </c>
       <c r="L33" t="n">
-        <v>624.7151673100321</v>
+        <v>426.7955854929403</v>
       </c>
       <c r="M33" t="n">
-        <v>1200.166298970656</v>
+        <v>1002.246717153565</v>
       </c>
       <c r="N33" t="n">
-        <v>1806.554923165512</v>
+        <v>1608.63534134842</v>
       </c>
       <c r="O33" t="n">
-        <v>2294.866368419046</v>
+        <v>2096.946786601954</v>
       </c>
       <c r="P33" t="n">
-        <v>2669.776285855075</v>
+        <v>2471.856704037983</v>
       </c>
       <c r="Q33" t="n">
         <v>2669.776285855075</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2343.085341882093</v>
+        <v>63.08220155641214</v>
       </c>
       <c r="C34" t="n">
-        <v>2343.085341882093</v>
+        <v>63.08220155641214</v>
       </c>
       <c r="D34" t="n">
-        <v>2343.085341882093</v>
+        <v>63.08220155641214</v>
       </c>
       <c r="E34" t="n">
-        <v>2343.085341882093</v>
+        <v>63.08220155641214</v>
       </c>
       <c r="F34" t="n">
-        <v>2343.085341882093</v>
+        <v>63.08220155641214</v>
       </c>
       <c r="G34" t="n">
-        <v>2174.258742076728</v>
+        <v>63.08220155641214</v>
       </c>
       <c r="H34" t="n">
-        <v>2018.050279020744</v>
+        <v>53.39552571710149</v>
       </c>
       <c r="I34" t="n">
-        <v>1886.929978205277</v>
+        <v>53.39552571710149</v>
       </c>
       <c r="J34" t="n">
-        <v>1853.518726032971</v>
+        <v>53.39552571710149</v>
       </c>
       <c r="K34" t="n">
-        <v>1929.543220418268</v>
+        <v>129.4200201023994</v>
       </c>
       <c r="L34" t="n">
-        <v>2082.354833517096</v>
+        <v>282.2316332012271</v>
       </c>
       <c r="M34" t="n">
-        <v>2253.86237685516</v>
+        <v>453.7391765392906</v>
       </c>
       <c r="N34" t="n">
-        <v>2426.726470572705</v>
+        <v>626.6032702568361</v>
       </c>
       <c r="O34" t="n">
-        <v>2570.378144470699</v>
+        <v>770.2549441548302</v>
       </c>
       <c r="P34" t="n">
-        <v>2669.776285855075</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="Q34" t="n">
-        <v>2654.862543099594</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="R34" t="n">
-        <v>2514.503606868962</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="S34" t="n">
-        <v>2343.085341882093</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="T34" t="n">
-        <v>2343.085341882093</v>
+        <v>869.6530855392057</v>
       </c>
       <c r="U34" t="n">
-        <v>2343.085341882093</v>
+        <v>580.4889224913901</v>
       </c>
       <c r="V34" t="n">
-        <v>2343.085341882093</v>
+        <v>580.4889224913901</v>
       </c>
       <c r="W34" t="n">
-        <v>2343.085341882093</v>
+        <v>291.0717524544295</v>
       </c>
       <c r="X34" t="n">
-        <v>2343.085341882093</v>
+        <v>63.08220155641214</v>
       </c>
       <c r="Y34" t="n">
-        <v>2343.085341882093</v>
+        <v>63.08220155641214</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1178.889719885774</v>
+        <v>405.6997251101233</v>
       </c>
       <c r="C35" t="n">
-        <v>1178.889719885774</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="D35" t="n">
-        <v>820.6240212790231</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="E35" t="n">
-        <v>820.6240212790231</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="F35" t="n">
-        <v>409.6381164894155</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="G35" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="H35" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="I35" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="J35" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="K35" t="n">
-        <v>58.2226541403589</v>
+        <v>58.22265414035886</v>
       </c>
       <c r="L35" t="n">
-        <v>512.8456052405401</v>
+        <v>431.3043362070082</v>
       </c>
       <c r="M35" t="n">
-        <v>615.233736355287</v>
+        <v>885.9272873071893</v>
       </c>
       <c r="N35" t="n">
-        <v>1069.856687455468</v>
+        <v>1340.55023840737</v>
       </c>
       <c r="O35" t="n">
-        <v>1476.592468417784</v>
+        <v>1795.173189507552</v>
       </c>
       <c r="P35" t="n">
         <v>1836.86040848558</v>
@@ -6959,28 +6959,28 @@
         <v>1836.86040848558</v>
       </c>
       <c r="R35" t="n">
-        <v>1806.086373852233</v>
+        <v>1836.86040848558</v>
       </c>
       <c r="S35" t="n">
-        <v>1806.086373852233</v>
+        <v>1836.86040848558</v>
       </c>
       <c r="T35" t="n">
-        <v>1806.086373852233</v>
+        <v>1836.86040848558</v>
       </c>
       <c r="U35" t="n">
-        <v>1552.355478146853</v>
+        <v>1836.86040848558</v>
       </c>
       <c r="V35" t="n">
-        <v>1552.355478146853</v>
+        <v>1505.797521142009</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.355478146853</v>
+        <v>1182.438897150057</v>
       </c>
       <c r="X35" t="n">
-        <v>1178.889719885774</v>
+        <v>1182.438897150057</v>
       </c>
       <c r="Y35" t="n">
-        <v>1178.889719885774</v>
+        <v>792.2995651742451</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>211.1902374508386</v>
+        <v>507.8157445963469</v>
       </c>
       <c r="C36" t="n">
-        <v>36.73720816971161</v>
+        <v>333.3627153152198</v>
       </c>
       <c r="D36" t="n">
-        <v>36.73720816971161</v>
+        <v>250.9043560629457</v>
       </c>
       <c r="E36" t="n">
-        <v>36.73720816971161</v>
+        <v>91.66690105749021</v>
       </c>
       <c r="F36" t="n">
-        <v>36.73720816971161</v>
+        <v>91.66690105749021</v>
       </c>
       <c r="G36" t="n">
-        <v>36.73720816971161</v>
+        <v>91.66690105749021</v>
       </c>
       <c r="H36" t="n">
-        <v>36.73720816971161</v>
+        <v>91.66690105749021</v>
       </c>
       <c r="I36" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="J36" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="K36" t="n">
-        <v>324.6808657734064</v>
+        <v>62.86028113095355</v>
       </c>
       <c r="L36" t="n">
-        <v>773.2610441628102</v>
+        <v>511.4404595203573</v>
       </c>
       <c r="M36" t="n">
-        <v>887.6641627109348</v>
+        <v>908.9397907797982</v>
       </c>
       <c r="N36" t="n">
-        <v>1019.503836305672</v>
+        <v>1363.562741879979</v>
       </c>
       <c r="O36" t="n">
         <v>1461.950491049551</v>
@@ -7038,28 +7038,28 @@
         <v>1836.86040848558</v>
       </c>
       <c r="R36" t="n">
-        <v>1836.86040848558</v>
+        <v>1799.473913131039</v>
       </c>
       <c r="S36" t="n">
-        <v>1682.52480661653</v>
+        <v>1799.473913131039</v>
       </c>
       <c r="T36" t="n">
-        <v>1484.478972665538</v>
+        <v>1601.428079180047</v>
       </c>
       <c r="U36" t="n">
-        <v>1256.322940267383</v>
+        <v>1373.272046781892</v>
       </c>
       <c r="V36" t="n">
-        <v>1021.17083203564</v>
+        <v>1138.119938550149</v>
       </c>
       <c r="W36" t="n">
-        <v>766.9334753074384</v>
+        <v>883.8825818219477</v>
       </c>
       <c r="X36" t="n">
-        <v>559.0819751019055</v>
+        <v>676.0310816164149</v>
       </c>
       <c r="Y36" t="n">
-        <v>379.4055744709067</v>
+        <v>676.0310816164149</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1595.378516711992</v>
+        <v>1020.602848663476</v>
       </c>
       <c r="C37" t="n">
-        <v>1595.378516711992</v>
+        <v>1020.602848663476</v>
       </c>
       <c r="D37" t="n">
-        <v>1445.261877299657</v>
+        <v>1020.602848663476</v>
       </c>
       <c r="E37" t="n">
-        <v>1297.348783717263</v>
+        <v>1020.602848663476</v>
       </c>
       <c r="F37" t="n">
-        <v>1297.348783717263</v>
+        <v>1020.602848663476</v>
       </c>
       <c r="G37" t="n">
-        <v>1297.348783717263</v>
+        <v>1020.602848663476</v>
       </c>
       <c r="H37" t="n">
-        <v>1141.140320661279</v>
+        <v>1020.602848663476</v>
       </c>
       <c r="I37" t="n">
         <v>1020.602848663476</v>
@@ -7099,7 +7099,7 @@
         <v>1096.627343048774</v>
       </c>
       <c r="L37" t="n">
-        <v>1249.438956147602</v>
+        <v>1249.438956147601</v>
       </c>
       <c r="M37" t="n">
         <v>1420.946499485665</v>
@@ -7117,28 +7117,28 @@
         <v>1821.9466657301</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.9466657301</v>
+        <v>1681.587729499468</v>
       </c>
       <c r="S37" t="n">
-        <v>1821.9466657301</v>
+        <v>1681.587729499468</v>
       </c>
       <c r="T37" t="n">
-        <v>1595.378516711992</v>
+        <v>1681.587729499468</v>
       </c>
       <c r="U37" t="n">
-        <v>1595.378516711992</v>
+        <v>1681.587729499468</v>
       </c>
       <c r="V37" t="n">
-        <v>1595.378516711992</v>
+        <v>1426.903241293581</v>
       </c>
       <c r="W37" t="n">
-        <v>1595.378516711992</v>
+        <v>1426.903241293581</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.378516711992</v>
+        <v>1198.913690395563</v>
       </c>
       <c r="Y37" t="n">
-        <v>1595.378516711992</v>
+        <v>1020.602848663476</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>865.3008003545292</v>
+        <v>1463.3946502245</v>
       </c>
       <c r="C38" t="n">
-        <v>865.3008003545292</v>
+        <v>1094.432133284089</v>
       </c>
       <c r="D38" t="n">
-        <v>865.3008003545292</v>
+        <v>1094.432133284089</v>
       </c>
       <c r="E38" t="n">
-        <v>865.3008003545292</v>
+        <v>708.6438806858444</v>
       </c>
       <c r="F38" t="n">
-        <v>454.3148955649216</v>
+        <v>297.6579758962368</v>
       </c>
       <c r="G38" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="H38" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="I38" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="J38" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="K38" t="n">
-        <v>379.126612585812</v>
+        <v>379.1266125858119</v>
       </c>
       <c r="L38" t="n">
-        <v>833.7495636859931</v>
+        <v>796.6592320916848</v>
       </c>
       <c r="M38" t="n">
-        <v>936.13769480074</v>
+        <v>1251.282183191866</v>
       </c>
       <c r="N38" t="n">
-        <v>1387.324413202279</v>
+        <v>1705.905134292047</v>
       </c>
       <c r="O38" t="n">
-        <v>1476.592468417784</v>
+        <v>1795.173189507552</v>
       </c>
       <c r="P38" t="n">
         <v>1836.86040848558</v>
@@ -7205,19 +7205,19 @@
         <v>1836.86040848558</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.208787600455</v>
+        <v>1836.86040848558</v>
       </c>
       <c r="V38" t="n">
-        <v>1608.208787600455</v>
+        <v>1836.86040848558</v>
       </c>
       <c r="W38" t="n">
-        <v>1255.440132330341</v>
+        <v>1836.86040848558</v>
       </c>
       <c r="X38" t="n">
-        <v>1255.440132330341</v>
+        <v>1463.3946502245</v>
       </c>
       <c r="Y38" t="n">
-        <v>865.3008003545292</v>
+        <v>1463.3946502245</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>183.1063393168836</v>
+        <v>360.1246471120899</v>
       </c>
       <c r="C39" t="n">
-        <v>36.73720816971161</v>
+        <v>185.6716178309629</v>
       </c>
       <c r="D39" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="E39" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="F39" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="G39" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="H39" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="I39" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="J39" t="n">
-        <v>36.73720816971161</v>
+        <v>131.1244408857142</v>
       </c>
       <c r="K39" t="n">
-        <v>62.86028113095358</v>
+        <v>419.068098489409</v>
       </c>
       <c r="L39" t="n">
-        <v>511.4404595203574</v>
+        <v>867.6482768788128</v>
       </c>
       <c r="M39" t="n">
-        <v>966.0634106205384</v>
+        <v>1033.80348646815</v>
       </c>
       <c r="N39" t="n">
-        <v>1420.68636172072</v>
+        <v>1165.643160062887</v>
       </c>
       <c r="O39" t="n">
-        <v>1777.228632003089</v>
+        <v>1264.030909232459</v>
       </c>
       <c r="P39" t="n">
-        <v>1836.86040848558</v>
+        <v>1638.940826668488</v>
       </c>
       <c r="Q39" t="n">
         <v>1836.86040848558</v>
@@ -7278,25 +7278,25 @@
         <v>1836.86040848558</v>
       </c>
       <c r="S39" t="n">
-        <v>1682.52480661653</v>
+        <v>1682.524806616529</v>
       </c>
       <c r="T39" t="n">
         <v>1484.478972665538</v>
       </c>
       <c r="U39" t="n">
-        <v>1256.322940267383</v>
+        <v>1256.322940267382</v>
       </c>
       <c r="V39" t="n">
-        <v>1021.17083203564</v>
+        <v>1021.170832035639</v>
       </c>
       <c r="W39" t="n">
-        <v>766.9334753074384</v>
+        <v>766.9334753074379</v>
       </c>
       <c r="X39" t="n">
-        <v>559.0819751019055</v>
+        <v>559.0819751019051</v>
       </c>
       <c r="Y39" t="n">
-        <v>351.3216763369516</v>
+        <v>360.1246471120899</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.564173120029</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="C40" t="n">
-        <v>186.8538475820473</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="D40" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="E40" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="F40" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="G40" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="H40" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="I40" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="J40" t="n">
-        <v>36.73720816971161</v>
+        <v>36.7372081697116</v>
       </c>
       <c r="K40" t="n">
         <v>112.7617025550095</v>
       </c>
       <c r="L40" t="n">
-        <v>265.5733156538373</v>
+        <v>265.5733156538372</v>
       </c>
       <c r="M40" t="n">
-        <v>437.0808589919009</v>
+        <v>437.0808589919008</v>
       </c>
       <c r="N40" t="n">
-        <v>609.9449527094465</v>
+        <v>609.9449527094464</v>
       </c>
       <c r="O40" t="n">
-        <v>753.5966266074406</v>
+        <v>753.5966266074405</v>
       </c>
       <c r="P40" t="n">
-        <v>852.9947679918162</v>
+        <v>852.9947679918159</v>
       </c>
       <c r="Q40" t="n">
-        <v>852.9947679918162</v>
+        <v>852.9947679918159</v>
       </c>
       <c r="R40" t="n">
-        <v>852.9947679918162</v>
+        <v>852.9947679918159</v>
       </c>
       <c r="S40" t="n">
-        <v>852.9947679918162</v>
+        <v>852.9947679918159</v>
       </c>
       <c r="T40" t="n">
-        <v>852.9947679918162</v>
+        <v>852.9947679918159</v>
       </c>
       <c r="U40" t="n">
-        <v>852.9947679918162</v>
+        <v>852.9947679918159</v>
       </c>
       <c r="V40" t="n">
-        <v>852.9947679918162</v>
+        <v>598.3102797859291</v>
       </c>
       <c r="W40" t="n">
-        <v>852.9947679918162</v>
+        <v>598.3102797859291</v>
       </c>
       <c r="X40" t="n">
-        <v>625.0052170937988</v>
+        <v>370.3207288879117</v>
       </c>
       <c r="Y40" t="n">
-        <v>404.2126379502687</v>
+        <v>149.5281497443816</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>791.4879777083676</v>
+        <v>1097.491913151346</v>
       </c>
       <c r="C41" t="n">
-        <v>422.5254607679558</v>
+        <v>728.5293962109345</v>
       </c>
       <c r="D41" t="n">
-        <v>422.5254607679558</v>
+        <v>728.5293962109345</v>
       </c>
       <c r="E41" t="n">
-        <v>36.73720816971161</v>
+        <v>728.5293962109345</v>
       </c>
       <c r="F41" t="n">
-        <v>36.73720816971161</v>
+        <v>728.5293962109345</v>
       </c>
       <c r="G41" t="n">
-        <v>36.73720816971161</v>
+        <v>310.9517088157244</v>
       </c>
       <c r="H41" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="I41" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="J41" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="K41" t="n">
-        <v>379.126612585812</v>
+        <v>58.2226541403589</v>
       </c>
       <c r="L41" t="n">
-        <v>833.7495636859931</v>
+        <v>512.8456052405404</v>
       </c>
       <c r="M41" t="n">
-        <v>936.13769480074</v>
+        <v>967.468556340722</v>
       </c>
       <c r="N41" t="n">
-        <v>1044.796381299252</v>
+        <v>1387.324413202281</v>
       </c>
       <c r="O41" t="n">
-        <v>1476.592468417784</v>
+        <v>1476.592468417786</v>
       </c>
       <c r="P41" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="Q41" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="R41" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="S41" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="T41" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="U41" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="V41" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="W41" t="n">
-        <v>1836.86040848558</v>
+        <v>1484.091753215468</v>
       </c>
       <c r="X41" t="n">
-        <v>1568.227149748301</v>
+        <v>1484.091753215468</v>
       </c>
       <c r="Y41" t="n">
-        <v>1178.087817772489</v>
+        <v>1484.091753215468</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>351.3216763369516</v>
+        <v>519.3621021175454</v>
       </c>
       <c r="C42" t="n">
-        <v>176.8686470558246</v>
+        <v>344.9090728364184</v>
       </c>
       <c r="D42" t="n">
-        <v>176.8686470558246</v>
+        <v>195.9746631751671</v>
       </c>
       <c r="E42" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="F42" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="G42" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="H42" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="I42" t="n">
-        <v>36.73720816971161</v>
+        <v>36.73720816971164</v>
       </c>
       <c r="J42" t="n">
-        <v>36.73720816971161</v>
+        <v>131.1244408857142</v>
       </c>
       <c r="K42" t="n">
-        <v>62.86028113095358</v>
+        <v>157.2475138469562</v>
       </c>
       <c r="L42" t="n">
-        <v>511.4404595203574</v>
+        <v>605.82769223636</v>
       </c>
       <c r="M42" t="n">
-        <v>625.8435780684819</v>
+        <v>720.2308107844844</v>
       </c>
       <c r="N42" t="n">
-        <v>1080.466529168663</v>
+        <v>852.0704843792214</v>
       </c>
       <c r="O42" t="n">
-        <v>1461.950491049551</v>
+        <v>1264.030909232461</v>
       </c>
       <c r="P42" t="n">
-        <v>1836.86040848558</v>
+        <v>1638.94082666849</v>
       </c>
       <c r="Q42" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="R42" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="S42" t="n">
-        <v>1682.52480661653</v>
+        <v>1682.524806616531</v>
       </c>
       <c r="T42" t="n">
-        <v>1484.478972665538</v>
+        <v>1484.478972665539</v>
       </c>
       <c r="U42" t="n">
-        <v>1256.322940267383</v>
+        <v>1256.322940267384</v>
       </c>
       <c r="V42" t="n">
-        <v>1021.17083203564</v>
+        <v>1103.1892381081</v>
       </c>
       <c r="W42" t="n">
-        <v>766.9334753074384</v>
+        <v>1103.1892381081</v>
       </c>
       <c r="X42" t="n">
-        <v>559.0819751019055</v>
+        <v>895.3377379025674</v>
       </c>
       <c r="Y42" t="n">
-        <v>351.3216763369516</v>
+        <v>687.5774391376135</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="C43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="D43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="E43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="F43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="G43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="H43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="I43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="J43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
       <c r="K43" t="n">
-        <v>1096.627343048774</v>
+        <v>1096.627343048776</v>
       </c>
       <c r="L43" t="n">
-        <v>1249.438956147602</v>
+        <v>1249.438956147603</v>
       </c>
       <c r="M43" t="n">
-        <v>1420.946499485665</v>
+        <v>1420.946499485667</v>
       </c>
       <c r="N43" t="n">
-        <v>1593.810593203211</v>
+        <v>1593.810593203212</v>
       </c>
       <c r="O43" t="n">
-        <v>1737.462267101205</v>
+        <v>1737.462267101206</v>
       </c>
       <c r="P43" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="Q43" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="R43" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="S43" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="T43" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="U43" t="n">
-        <v>1836.86040848558</v>
+        <v>1836.860408485582</v>
       </c>
       <c r="V43" t="n">
-        <v>1582.175920279693</v>
+        <v>1582.175920279695</v>
       </c>
       <c r="W43" t="n">
-        <v>1292.758750242733</v>
+        <v>1292.758750242734</v>
       </c>
       <c r="X43" t="n">
-        <v>1064.769199344715</v>
+        <v>1064.769199344717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1020.602848663476</v>
+        <v>1020.602848663478</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10.37526153448215</v>
+        <v>141.3760384850142</v>
       </c>
       <c r="C44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="D44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="E44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="F44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="G44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="H44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="I44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="J44" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="K44" t="n">
-        <v>113.2046274596951</v>
+        <v>31.8607075051294</v>
       </c>
       <c r="L44" t="n">
-        <v>176.7609849173153</v>
+        <v>95.41706496274955</v>
       </c>
       <c r="M44" t="n">
-        <v>279.1491160320622</v>
+        <v>197.8051960774964</v>
       </c>
       <c r="N44" t="n">
-        <v>387.8078025305741</v>
+        <v>306.4638825760082</v>
       </c>
       <c r="O44" t="n">
-        <v>477.0758577460787</v>
+        <v>395.7319377915128</v>
       </c>
       <c r="P44" t="n">
-        <v>518.7630767241073</v>
+        <v>437.4191567695415</v>
       </c>
       <c r="Q44" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="R44" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="S44" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="T44" t="n">
-        <v>387.7622997735752</v>
+        <v>518.763076724107</v>
       </c>
       <c r="U44" t="n">
-        <v>387.7622997735752</v>
+        <v>518.763076724107</v>
       </c>
       <c r="V44" t="n">
-        <v>387.7622997735752</v>
+        <v>518.763076724107</v>
       </c>
       <c r="W44" t="n">
-        <v>256.761522823043</v>
+        <v>518.763076724107</v>
       </c>
       <c r="X44" t="n">
-        <v>141.3760384850143</v>
+        <v>403.3775923860784</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.3760384850143</v>
+        <v>272.3768154355463</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>141.3760384850143</v>
+        <v>256.7615228230428</v>
       </c>
       <c r="C45" t="n">
-        <v>141.3760384850143</v>
+        <v>125.7607458725107</v>
       </c>
       <c r="D45" t="n">
-        <v>10.37526153448215</v>
+        <v>125.7607458725107</v>
       </c>
       <c r="E45" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="F45" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="G45" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="H45" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="I45" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="J45" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="K45" t="n">
-        <v>36.49833449572409</v>
+        <v>36.49833449572395</v>
       </c>
       <c r="L45" t="n">
-        <v>117.9465710347033</v>
+        <v>117.9465710347031</v>
       </c>
       <c r="M45" t="n">
-        <v>232.3496895828278</v>
+        <v>232.3496895828276</v>
       </c>
       <c r="N45" t="n">
-        <v>360.7435510720444</v>
+        <v>360.7435510720441</v>
       </c>
       <c r="O45" t="n">
-        <v>459.1313002416162</v>
+        <v>459.1313002416159</v>
       </c>
       <c r="P45" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="Q45" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="R45" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="S45" t="n">
-        <v>518.7630767241073</v>
+        <v>387.7622997735749</v>
       </c>
       <c r="T45" t="n">
-        <v>518.7630767241073</v>
+        <v>387.7622997735749</v>
       </c>
       <c r="U45" t="n">
-        <v>518.7630767241073</v>
+        <v>387.7622997735749</v>
       </c>
       <c r="V45" t="n">
-        <v>518.7630767241073</v>
+        <v>387.7622997735749</v>
       </c>
       <c r="W45" t="n">
-        <v>387.7622997735752</v>
+        <v>387.7622997735749</v>
       </c>
       <c r="X45" t="n">
-        <v>256.761522823043</v>
+        <v>387.7622997735749</v>
       </c>
       <c r="Y45" t="n">
-        <v>141.3760384850143</v>
+        <v>256.7615228230428</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.3760384850143</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="C46" t="n">
-        <v>141.3760384850143</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="D46" t="n">
-        <v>141.3760384850143</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="E46" t="n">
-        <v>141.3760384850143</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="F46" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="G46" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="H46" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="I46" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="J46" t="n">
-        <v>10.37526153448215</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="K46" t="n">
-        <v>10.37526153448215</v>
+        <v>86.39975591978005</v>
       </c>
       <c r="L46" t="n">
-        <v>34.18335087208214</v>
+        <v>214.7936174089965</v>
       </c>
       <c r="M46" t="n">
-        <v>162.5772123612987</v>
+        <v>343.187478898213</v>
       </c>
       <c r="N46" t="n">
-        <v>290.9710738505153</v>
+        <v>419.3649353397315</v>
       </c>
       <c r="O46" t="n">
-        <v>419.3649353397319</v>
+        <v>419.3649353397315</v>
       </c>
       <c r="P46" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="Q46" t="n">
-        <v>518.7630767241073</v>
+        <v>518.763076724107</v>
       </c>
       <c r="R46" t="n">
-        <v>387.7622997735752</v>
+        <v>518.763076724107</v>
       </c>
       <c r="S46" t="n">
-        <v>272.3768154355465</v>
+        <v>518.763076724107</v>
       </c>
       <c r="T46" t="n">
-        <v>141.3760384850143</v>
+        <v>403.3775923860784</v>
       </c>
       <c r="U46" t="n">
-        <v>141.3760384850143</v>
+        <v>272.3768154355463</v>
       </c>
       <c r="V46" t="n">
-        <v>141.3760384850143</v>
+        <v>141.3760384850142</v>
       </c>
       <c r="W46" t="n">
-        <v>141.3760384850143</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="X46" t="n">
-        <v>141.3760384850143</v>
+        <v>10.37526153448214</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.3760384850143</v>
+        <v>10.37526153448214</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>19.71558945510449</v>
       </c>
       <c r="K11" t="n">
-        <v>48.48685820701301</v>
+        <v>186.5264986649521</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>104.8066146810131</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>101.8120023985247</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>17.03775883939713</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8772,7 +8772,7 @@
         <v>181.8420269572807</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>125.6568947871223</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>125.6568947871222</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>10.1585182236349</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>107.5801522321887</v>
       </c>
       <c r="M15" t="n">
-        <v>92.67026373820744</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>75.05758187294222</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>108.8474045246243</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>30.92367160862884</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.1585182236349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>19.71558945510449</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>186.5264986649521</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>144.0306284760906</v>
       </c>
       <c r="M17" t="n">
-        <v>48.48685820701311</v>
+        <v>62.5879886034474</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>30.75039623333554</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>125.9580233434047</v>
       </c>
       <c r="M18" t="n">
-        <v>92.67026373820744</v>
+        <v>92.67026373820747</v>
       </c>
       <c r="N18" t="n">
-        <v>75.05758187294222</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>44.4304370261799</v>
+        <v>88.87063466279082</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.1585182236349</v>
+        <v>10.15851822363493</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,25 +9401,25 @@
         <v>19.71558945510449</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>37.13893631480315</v>
       </c>
       <c r="L20" t="n">
-        <v>243.1869777439871</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>434.3309476213817</v>
       </c>
       <c r="N20" t="n">
-        <v>427.997053294346</v>
+        <v>427.9970532943465</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.03775883939713</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>30.75039623333554</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>400.0344972065882</v>
+        <v>329.1979363113004</v>
       </c>
       <c r="N21" t="n">
-        <v>404.5819148133104</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.1585182236349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>260.9855854918973</v>
       </c>
       <c r="P23" t="n">
-        <v>6.706880580126601</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>30.75039623333552</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>97.59231337604534</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.1585182236349</v>
+        <v>12.41019249260762</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>19.71558945510449</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>9.053584979808651</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>6.706880580126601</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>30.75039623333552</v>
+        <v>30.75039623333554</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>151.5898450034043</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.7508315996803</v>
+        <v>10.15851822363493</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>19.71558945510449</v>
       </c>
       <c r="K29" t="n">
-        <v>204.3308168003161</v>
+        <v>204.3308168003162</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.03775883939713</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>30.75039623333552</v>
+        <v>30.75039623333554</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>363.3786076138315</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>151.5898450034043</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>10.15851822363493</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>19.71558945510449</v>
       </c>
       <c r="K32" t="n">
-        <v>204.3308168003161</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>201.9841124006346</v>
       </c>
       <c r="Q32" t="n">
-        <v>17.03775883939713</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>30.75039623333552</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>97.59231337604534</v>
+        <v>173.1732500602173</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.1585182236349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,22 +10589,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>395.016761255112</v>
+        <v>312.6518430394235</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>355.7927474600345</v>
       </c>
       <c r="N35" t="n">
-        <v>349.4588531329993</v>
+        <v>349.4588531329992</v>
       </c>
       <c r="O35" t="n">
-        <v>320.6744704513245</v>
+        <v>369.0453493784611</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.03775883939713</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>30.75039623333552</v>
+        <v>30.75039623333554</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>285.9557704154711</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>326.0437146519637</v>
       </c>
       <c r="O36" t="n">
-        <v>347.5342480548563</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.1585182236349</v>
+        <v>10.15851822363493</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,22 +10826,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>395.016761255112</v>
+        <v>357.5517798467199</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>355.7927474600345</v>
       </c>
       <c r="N38" t="n">
-        <v>345.9879110131592</v>
+        <v>349.4588531329992</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>17.03775883939713</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>30.75039623333552</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>343.6563965172289</v>
+        <v>52.27483943556882</v>
       </c>
       <c r="N39" t="n">
-        <v>326.0437146519637</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>260.7621425381796</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.1585182236349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,25 +11060,25 @@
         <v>19.71558945510449</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>395.016761255112</v>
+        <v>395.0167612551125</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>355.792747460035</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>314.3405761242901</v>
       </c>
       <c r="O41" t="n">
-        <v>345.9879110131591</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>17.03775883939713</v>
+        <v>17.03775883939716</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>30.75039623333552</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>326.0437146519637</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>285.9557704154714</v>
+        <v>316.7400764481494</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>10.1585182236349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>19.71558945510449</v>
       </c>
       <c r="K44" t="n">
-        <v>82.16557571168252</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>17.03775883939713</v>
+        <v>99.20333455107952</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>30.75039623333552</v>
+        <v>30.75039623333554</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.1585182236349</v>
+        <v>10.15851822363493</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,19 +11455,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>29.95134777364451</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>32.16811188374864</v>
+        <v>137.8103059762906</v>
       </c>
       <c r="M46" t="n">
-        <v>134.9604873247517</v>
+        <v>134.9604873247516</v>
       </c>
       <c r="N46" t="n">
-        <v>126.8982903512001</v>
+        <v>74.15444686867689</v>
       </c>
       <c r="O46" t="n">
-        <v>147.6297346398446</v>
+        <v>17.93896545881775</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>335.7165507644557</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>198.6470763993378</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4019105212579</v>
+        <v>205.1729411788843</v>
       </c>
       <c r="H11" t="n">
-        <v>320.0079576647227</v>
+        <v>111.7789883223491</v>
       </c>
       <c r="I11" t="n">
-        <v>137.1942568889566</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>30.46629428701338</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>165.7049744632695</v>
       </c>
       <c r="T11" t="n">
-        <v>6.54601005606051</v>
+        <v>214.7749793984341</v>
       </c>
       <c r="U11" t="n">
-        <v>55.72780995947318</v>
+        <v>251.1935867483263</v>
       </c>
       <c r="V11" t="n">
-        <v>119.5232891277613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>141.9567422785013</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23349,10 +23349,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.3264850598357</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.86929009896944</v>
       </c>
       <c r="I12" t="n">
         <v>54.38039595890082</v>
@@ -23388,7 +23388,7 @@
         <v>152.7922458503604</v>
       </c>
       <c r="T12" t="n">
-        <v>196.0653756114814</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8744720741738</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.1383338073118</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>154.646378425424</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>14.76460532792584</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>138.9553468683258</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9283421350650372</v>
+        <v>209.1573114774386</v>
       </c>
       <c r="T13" t="n">
-        <v>134.5070063150114</v>
+        <v>224.3024675279264</v>
       </c>
       <c r="U13" t="n">
-        <v>78.04355207496386</v>
+        <v>286.2725214173374</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>74.13465681350706</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,25 +23495,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>181.8648155742449</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>146.4540722783094</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>173.7014007298882</v>
+        <v>335.7165507644557</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>198.6470763993378</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4019105212579</v>
+        <v>205.1729411788843</v>
       </c>
       <c r="H14" t="n">
-        <v>320.0079576647227</v>
+        <v>111.7789883223491</v>
       </c>
       <c r="I14" t="n">
-        <v>137.1942568889566</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>161.5021313360954</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8928094347047</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.3264850598357</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>102.4130552381122</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>54.38039595890082</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23637,10 +23637,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>90.04744495972018</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.3101414430701</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>117.0464491544606</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1383338073118</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.646378425424</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>138.9553468683258</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9283421350650087</v>
+        <v>209.1573114774386</v>
       </c>
       <c r="T16" t="n">
-        <v>16.07349818555275</v>
+        <v>224.3024675279264</v>
       </c>
       <c r="U16" t="n">
-        <v>78.04355207496383</v>
+        <v>286.2725214173374</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>173.7014007298882</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>198.6470763993378</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>205.1729411788843</v>
       </c>
       <c r="H17" t="n">
-        <v>136.59988146796</v>
+        <v>111.7789883223491</v>
       </c>
       <c r="I17" t="n">
         <v>137.1942568889566</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S17" t="n">
         <v>165.7049744632695</v>
@@ -23789,10 +23789,10 @@
         <v>251.1935867483263</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>144.3441822733724</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>141.0119993750394</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.01263040099575</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>88.23328921851521</v>
       </c>
       <c r="U18" t="n">
-        <v>17.64550273180024</v>
+        <v>17.64550273180026</v>
       </c>
       <c r="V18" t="n">
-        <v>24.57161780705167</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>245.9281894846209</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23908,10 @@
         <v>154.646378425424</v>
       </c>
       <c r="I19" t="n">
-        <v>126.2330017924865</v>
+        <v>129.8090978073119</v>
       </c>
       <c r="J19" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R19" t="n">
-        <v>138.9553468683258</v>
+        <v>122.7940917701911</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9283421350650087</v>
+        <v>209.1573114774386</v>
       </c>
       <c r="T19" t="n">
         <v>224.3024675279264</v>
       </c>
       <c r="U19" t="n">
-        <v>78.04355207496383</v>
+        <v>286.2725214173374</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>78.29402899421743</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>17.48068604666358</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.35568400972119</v>
+        <v>10.35568400972122</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>153.8241440876915</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.4019105212579</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>165.7049744632695</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.7749793984341</v>
       </c>
       <c r="U20" t="n">
-        <v>8.189085920249113</v>
+        <v>251.1935867483263</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24063,7 +24063,7 @@
         <v>136.3264850598357</v>
       </c>
       <c r="H21" t="n">
-        <v>60.902072858073</v>
+        <v>102.4130552381122</v>
       </c>
       <c r="I21" t="n">
         <v>54.38039595890082</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.01263040099575</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>152.7922458503604</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>20.37912452952273</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>131.8110544823864</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.1383338073118</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>154.646378425424</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>129.8090978073119</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>138.9553468683258</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>209.1573114774386</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>224.3024675279264</v>
+        <v>210.5785201623492</v>
       </c>
       <c r="U22" t="n">
         <v>286.2725214173374</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>128.2125535646992</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.4019105212579</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S23" t="n">
         <v>165.7049744632695</v>
       </c>
       <c r="T23" t="n">
-        <v>214.7749793984341</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1935867483263</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>322.3494258774754</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24385,7 +24385,7 @@
         <v>129.8090978073119</v>
       </c>
       <c r="J25" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R25" t="n">
         <v>138.9553468683258</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.859966177668</v>
+        <v>174.8599661776682</v>
       </c>
     </row>
     <row r="26">
@@ -24446,13 +24446,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>137.1942568889566</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>184.0638468391304</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1935867483263</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>238.295017068501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24622,7 +24622,7 @@
         <v>129.8090978073119</v>
       </c>
       <c r="J28" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R28" t="n">
         <v>138.9553468683258</v>
@@ -24652,22 +24652,22 @@
         <v>209.1573114774386</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3024675279264</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2725214173374</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>251.1697760539897</v>
+        <v>241.1406463818001</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24680,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.4019105212579</v>
       </c>
       <c r="H29" t="n">
-        <v>320.0079576647227</v>
+        <v>11.9833435607888</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>137.1942568889566</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S29" t="n">
         <v>165.7049744632695</v>
@@ -24734,13 +24734,13 @@
         <v>214.7749793984341</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1935867483263</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>33.3180026593754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24859,7 +24859,7 @@
         <v>129.8090978073119</v>
       </c>
       <c r="J31" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R31" t="n">
         <v>138.9553468683258</v>
       </c>
       <c r="S31" t="n">
-        <v>209.1573114774386</v>
+        <v>130.2219695509141</v>
       </c>
       <c r="T31" t="n">
-        <v>130.4864109549152</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2725214173374</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,13 +24917,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,7 +24932,7 @@
         <v>413.4019105212579</v>
       </c>
       <c r="H32" t="n">
-        <v>320.0079576647227</v>
+        <v>194.8019962207732</v>
       </c>
       <c r="I32" t="n">
         <v>137.1942568889566</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24977,13 +24977,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>190.8706909946249</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.1383338073118</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.0565693445064</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>129.8090978073119</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,28 +25117,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>138.9553468683258</v>
       </c>
       <c r="S34" t="n">
-        <v>39.45322914043834</v>
+        <v>209.1573114774386</v>
       </c>
       <c r="T34" t="n">
         <v>224.3024675279264</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2725214173374</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>44.23001128475107</v>
+        <v>413.4019105212579</v>
       </c>
       <c r="H35" t="n">
         <v>320.0079576647227</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S35" t="n">
         <v>165.7049744632695</v>
@@ -25208,19 +25208,19 @@
         <v>214.7749793984341</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1935867483263</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>29.11593096538002</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25236,10 +25236,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>65.81128990488739</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,7 +25251,7 @@
         <v>102.4130552381122</v>
       </c>
       <c r="I36" t="n">
-        <v>54.38039595890082</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.01263040099575</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>152.7922458503604</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>27.80305915261553</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,10 +25315,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,13 +25327,13 @@
         <v>167.1383338073118</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>154.646378425424</v>
       </c>
       <c r="I37" t="n">
-        <v>10.47700052948659</v>
+        <v>129.8090978073119</v>
       </c>
       <c r="J37" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>138.9553468683258</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>209.1573114774386</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>224.3024675279264</v>
       </c>
       <c r="U37" t="n">
         <v>286.2725214173374</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>42.05692003732838</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>155.090350471998</v>
       </c>
       <c r="H38" t="n">
         <v>320.0079576647227</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S38" t="n">
         <v>165.7049744632695</v>
@@ -25445,19 +25445,19 @@
         <v>214.7749793984341</v>
       </c>
       <c r="U38" t="n">
-        <v>24.82848207205225</v>
+        <v>251.1935867483263</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>27.8030591526155</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>8.714941067387315</v>
       </c>
     </row>
     <row r="40">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>68.16894802301398</v>
       </c>
       <c r="C40" t="n">
-        <v>131.893598816026</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25570,7 +25570,7 @@
         <v>129.8090978073119</v>
       </c>
       <c r="J40" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R40" t="n">
         <v>138.9553468683258</v>
@@ -25606,7 +25606,7 @@
         <v>286.2725214173374</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4019105212579</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.0079576647227</v>
+        <v>48.53560202517002</v>
       </c>
       <c r="I41" t="n">
         <v>137.1942568889566</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S41" t="n">
         <v>165.7049744632695</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>103.7841745285626</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91495595814911</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25764,10 +25764,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>81.19822201173437</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25807,7 +25807,7 @@
         <v>129.8090978073119</v>
       </c>
       <c r="J43" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R43" t="n">
         <v>138.9553468683258</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>253.0430724824537</v>
+        <v>253.0430724824538</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>235.5821225899808</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>30.46629428701338</v>
+        <v>30.4662942870134</v>
       </c>
       <c r="S44" t="n">
         <v>165.7049744632695</v>
       </c>
       <c r="T44" t="n">
-        <v>85.08421021740725</v>
+        <v>214.7749793984341</v>
       </c>
       <c r="U44" t="n">
         <v>251.1935867483263</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>219.5501995363862</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>255.4994711838206</v>
+        <v>255.4994711838207</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>256.5471694750269</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>43.01772980728899</v>
       </c>
       <c r="D45" t="n">
-        <v>17.75429638361192</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>43.41345096075263</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,7 +25992,7 @@
         <v>37.01263040099575</v>
       </c>
       <c r="S45" t="n">
-        <v>152.7922458503604</v>
+        <v>23.10147666933366</v>
       </c>
       <c r="T45" t="n">
         <v>196.0653756114814</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>122.0042139798928</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>76.08221602245064</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>91.45106628265593</v>
+        <v>75.99192659627761</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>15.73027884190441</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.1383338073118</v>
@@ -26044,7 +26044,7 @@
         <v>129.8090978073119</v>
       </c>
       <c r="J46" t="n">
-        <v>33.07713965058354</v>
+        <v>33.07713965058355</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26065,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.76460532792584</v>
+        <v>14.76460532792585</v>
       </c>
       <c r="R46" t="n">
-        <v>9.264577687298981</v>
+        <v>138.9553468683258</v>
       </c>
       <c r="S46" t="n">
-        <v>94.92568198279018</v>
+        <v>209.1573114774386</v>
       </c>
       <c r="T46" t="n">
-        <v>94.61169834689952</v>
+        <v>110.070838033278</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2725214173374</v>
+        <v>156.5817522363107</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>122.4468741428012</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>156.8322291555642</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>405008.245676051</v>
+        <v>405008.2456760509</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>405008.2456760512</v>
+        <v>405008.2456760509</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>405008.2456760508</v>
+        <v>405008.245676051</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620638.683865665</v>
+        <v>620638.6838656651</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>569245.7370556354</v>
+        <v>569245.7370556353</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>569245.7370556353</v>
+        <v>569245.7370556358</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343556.8633443665</v>
+        <v>343556.8633443666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>593975.3455698527</v>
+      </c>
+      <c r="C2" t="n">
+        <v>593975.3455698525</v>
+      </c>
+      <c r="D2" t="n">
         <v>593975.3455698526</v>
-      </c>
-      <c r="C2" t="n">
-        <v>593975.3455698526</v>
-      </c>
-      <c r="D2" t="n">
-        <v>593975.3455698525</v>
       </c>
       <c r="E2" t="n">
         <v>266421.5991890767</v>
@@ -26326,7 +26326,7 @@
         <v>266421.5991890767</v>
       </c>
       <c r="G2" t="n">
-        <v>266421.5991890768</v>
+        <v>266421.5991890769</v>
       </c>
       <c r="H2" t="n">
         <v>379533.0540553489</v>
@@ -26335,22 +26335,22 @@
         <v>424050.2872863358</v>
       </c>
       <c r="J2" t="n">
+        <v>424050.2872863359</v>
+      </c>
+      <c r="K2" t="n">
         <v>424050.2872863358</v>
       </c>
-      <c r="K2" t="n">
-        <v>424050.2872863357</v>
-      </c>
       <c r="L2" t="n">
-        <v>424050.2872863359</v>
+        <v>424050.2872863358</v>
       </c>
       <c r="M2" t="n">
-        <v>352574.2859317332</v>
+        <v>352574.2859317336</v>
       </c>
       <c r="N2" t="n">
-        <v>352574.2859317335</v>
+        <v>352574.2859317333</v>
       </c>
       <c r="O2" t="n">
-        <v>352574.2859317335</v>
+        <v>352574.2859317336</v>
       </c>
       <c r="P2" t="n">
         <v>234159.4668444223</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>88908.63074630783</v>
+        <v>88908.63074630793</v>
       </c>
       <c r="I3" t="n">
-        <v>34487.49903138782</v>
+        <v>34487.49903138773</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="E4" t="n">
-        <v>28229.77849110038</v>
+        <v>28523.79219913697</v>
       </c>
       <c r="F4" t="n">
-        <v>28229.77849110038</v>
+        <v>28523.79219913697</v>
       </c>
       <c r="G4" t="n">
-        <v>28229.77849110038</v>
+        <v>28523.79219913697</v>
       </c>
       <c r="H4" t="n">
-        <v>83604.85482848923</v>
+        <v>84476.81090658017</v>
       </c>
       <c r="I4" t="n">
-        <v>105398.8030312571</v>
+        <v>106498.2196730212</v>
       </c>
       <c r="J4" t="n">
-        <v>105398.8030312571</v>
+        <v>106498.2196730212</v>
       </c>
       <c r="K4" t="n">
-        <v>105398.8030312571</v>
+        <v>106498.2196730212</v>
       </c>
       <c r="L4" t="n">
-        <v>105398.8030312571</v>
+        <v>106498.2196730212</v>
       </c>
       <c r="M4" t="n">
-        <v>70406.86489394099</v>
+        <v>71141.07529135322</v>
       </c>
       <c r="N4" t="n">
-        <v>70406.86489394099</v>
+        <v>71141.07529135322</v>
       </c>
       <c r="O4" t="n">
-        <v>70406.86489394099</v>
+        <v>71141.07529135329</v>
       </c>
       <c r="P4" t="n">
-        <v>12486.57923592543</v>
+        <v>12616.28555959324</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>22968.03091706369</v>
       </c>
       <c r="H5" t="n">
-        <v>43003.11035983809</v>
+        <v>43003.1103598381</v>
       </c>
       <c r="I5" t="n">
         <v>50888.30912604451</v>
@@ -26506,10 +26506,10 @@
         <v>38227.9877900282</v>
       </c>
       <c r="O5" t="n">
-        <v>38227.9877900282</v>
+        <v>38227.98779002823</v>
       </c>
       <c r="P5" t="n">
-        <v>18192.90834725381</v>
+        <v>18192.9083472538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140980.6237229501</v>
+        <v>140199.9766803216</v>
       </c>
       <c r="C6" t="n">
-        <v>140980.6237229501</v>
+        <v>140199.9766803213</v>
       </c>
       <c r="D6" t="n">
-        <v>140980.62372295</v>
+        <v>140199.9766803214</v>
       </c>
       <c r="E6" t="n">
-        <v>-226822.4141311656</v>
+        <v>-227116.4278392022</v>
       </c>
       <c r="F6" t="n">
-        <v>215223.7897809127</v>
+        <v>214929.776072876</v>
       </c>
       <c r="G6" t="n">
-        <v>215223.7897809127</v>
+        <v>214929.7760728763</v>
       </c>
       <c r="H6" t="n">
-        <v>164016.4581207137</v>
+        <v>163144.5020426227</v>
       </c>
       <c r="I6" t="n">
-        <v>233275.6760976464</v>
+        <v>232176.2594558823</v>
       </c>
       <c r="J6" t="n">
-        <v>267763.1751290341</v>
+        <v>266663.7584872702</v>
       </c>
       <c r="K6" t="n">
-        <v>267763.175129034</v>
+        <v>266663.7584872702</v>
       </c>
       <c r="L6" t="n">
-        <v>267763.1751290343</v>
+        <v>266663.7584872701</v>
       </c>
       <c r="M6" t="n">
-        <v>243939.433247764</v>
+        <v>243205.2228503521</v>
       </c>
       <c r="N6" t="n">
-        <v>243939.4332477643</v>
+        <v>243205.2228503519</v>
       </c>
       <c r="O6" t="n">
-        <v>243939.4332477643</v>
+        <v>243205.2228503521</v>
       </c>
       <c r="P6" t="n">
-        <v>203479.9792612431</v>
+        <v>203350.2729375753</v>
       </c>
     </row>
   </sheetData>
@@ -26750,34 +26750,34 @@
         <v>472.8307147269441</v>
       </c>
       <c r="G3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="H3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="I3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="J3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="K3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="L3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="M3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="N3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="O3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
       <c r="P3" t="n">
-        <v>472.8307147269441</v>
+        <v>472.830714726944</v>
       </c>
     </row>
     <row r="4">
@@ -26805,7 +26805,7 @@
         <v>208.2289693423736</v>
       </c>
       <c r="H4" t="n">
-        <v>537.7533022827419</v>
+        <v>537.7533022827422</v>
       </c>
       <c r="I4" t="n">
         <v>667.4440714637686</v>
@@ -26820,13 +26820,13 @@
         <v>667.4440714637686</v>
       </c>
       <c r="M4" t="n">
-        <v>459.2151021213951</v>
+        <v>459.215102121395</v>
       </c>
       <c r="N4" t="n">
-        <v>459.2151021213951</v>
+        <v>459.215102121395</v>
       </c>
       <c r="O4" t="n">
-        <v>459.2151021213951</v>
+        <v>459.2151021213955</v>
       </c>
       <c r="P4" t="n">
         <v>129.6907691810268</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>208.2289693423735</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>329.5243329403683</v>
+        <v>329.5243329403687</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6907691810268</v>
+        <v>129.6907691810264</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>208.2289693423735</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>329.5243329403683</v>
+        <v>329.5243329403687</v>
       </c>
     </row>
   </sheetData>
@@ -32227,25 +32227,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H17" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I17" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J17" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K17" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L17" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M17" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N17" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O17" t="n">
         <v>320.2679641646207</v>
@@ -32254,13 +32254,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R17" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S17" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T17" t="n">
         <v>8.320870165697274</v>
@@ -32306,13 +32306,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H18" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I18" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J18" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K18" t="n">
         <v>164.2283813594519</v>
@@ -32321,10 +32321,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M18" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N18" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O18" t="n">
         <v>241.9778092621937</v>
@@ -32336,7 +32336,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R18" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S18" t="n">
         <v>18.89092525347742</v>
@@ -32345,7 +32345,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H19" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I19" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J19" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K19" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L19" t="n">
         <v>126.7651394859745</v>
@@ -32406,16 +32406,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O19" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P19" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R19" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S19" t="n">
         <v>14.85928655953363</v>
@@ -32424,7 +32424,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,25 +32464,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H20" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I20" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J20" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K20" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L20" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M20" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N20" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O20" t="n">
         <v>320.2679641646207</v>
@@ -32491,13 +32491,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R20" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S20" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T20" t="n">
         <v>8.320870165697274</v>
@@ -32543,13 +32543,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H21" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I21" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J21" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K21" t="n">
         <v>164.2283813594519</v>
@@ -32558,10 +32558,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M21" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N21" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O21" t="n">
         <v>241.9778092621937</v>
@@ -32573,7 +32573,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R21" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S21" t="n">
         <v>18.89092525347742</v>
@@ -32582,7 +32582,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H22" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I22" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J22" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K22" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L22" t="n">
         <v>126.7651394859745</v>
@@ -32643,16 +32643,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O22" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P22" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R22" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S22" t="n">
         <v>14.85928655953363</v>
@@ -32661,7 +32661,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,25 +32701,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H23" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I23" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J23" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K23" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L23" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M23" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N23" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O23" t="n">
         <v>320.2679641646207</v>
@@ -32728,13 +32728,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R23" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S23" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T23" t="n">
         <v>8.320870165697274</v>
@@ -32780,13 +32780,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H24" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I24" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J24" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K24" t="n">
         <v>164.2283813594519</v>
@@ -32795,10 +32795,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M24" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N24" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O24" t="n">
         <v>241.9778092621937</v>
@@ -32810,7 +32810,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R24" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S24" t="n">
         <v>18.89092525347742</v>
@@ -32819,7 +32819,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H25" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I25" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J25" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K25" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L25" t="n">
         <v>126.7651394859745</v>
@@ -32880,16 +32880,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O25" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P25" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R25" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S25" t="n">
         <v>14.85928655953363</v>
@@ -32898,7 +32898,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,25 +32938,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H26" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I26" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J26" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K26" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L26" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M26" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N26" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O26" t="n">
         <v>320.2679641646207</v>
@@ -32965,13 +32965,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R26" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S26" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T26" t="n">
         <v>8.320870165697274</v>
@@ -33017,13 +33017,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H27" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I27" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J27" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K27" t="n">
         <v>164.2283813594519</v>
@@ -33032,10 +33032,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M27" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N27" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O27" t="n">
         <v>241.9778092621937</v>
@@ -33047,7 +33047,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R27" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S27" t="n">
         <v>18.89092525347742</v>
@@ -33056,7 +33056,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H28" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I28" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J28" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K28" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L28" t="n">
         <v>126.7651394859745</v>
@@ -33117,16 +33117,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O28" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P28" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R28" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S28" t="n">
         <v>14.85928655953363</v>
@@ -33135,7 +33135,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,25 +33175,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H29" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I29" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J29" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K29" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L29" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M29" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N29" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O29" t="n">
         <v>320.2679641646207</v>
@@ -33202,13 +33202,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R29" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S29" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T29" t="n">
         <v>8.320870165697274</v>
@@ -33254,13 +33254,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H30" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I30" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J30" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K30" t="n">
         <v>164.2283813594519</v>
@@ -33269,10 +33269,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M30" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N30" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O30" t="n">
         <v>241.9778092621937</v>
@@ -33284,7 +33284,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R30" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S30" t="n">
         <v>18.89092525347742</v>
@@ -33293,7 +33293,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H31" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I31" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J31" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K31" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L31" t="n">
         <v>126.7651394859745</v>
@@ -33354,16 +33354,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O31" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P31" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R31" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S31" t="n">
         <v>14.85928655953363</v>
@@ -33372,7 +33372,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,25 +33412,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H32" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I32" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J32" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K32" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L32" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M32" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N32" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O32" t="n">
         <v>320.2679641646207</v>
@@ -33439,13 +33439,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R32" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S32" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T32" t="n">
         <v>8.320870165697274</v>
@@ -33491,13 +33491,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H33" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I33" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J33" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K33" t="n">
         <v>164.2283813594519</v>
@@ -33506,10 +33506,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M33" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N33" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O33" t="n">
         <v>241.9778092621937</v>
@@ -33521,7 +33521,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R33" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S33" t="n">
         <v>18.89092525347742</v>
@@ -33530,7 +33530,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H34" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I34" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J34" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K34" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L34" t="n">
         <v>126.7651394859745</v>
@@ -33591,16 +33591,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O34" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P34" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R34" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S34" t="n">
         <v>14.85928655953363</v>
@@ -33609,7 +33609,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,25 +33649,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H35" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I35" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J35" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K35" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L35" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M35" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N35" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O35" t="n">
         <v>320.2679641646207</v>
@@ -33676,13 +33676,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R35" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S35" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T35" t="n">
         <v>8.320870165697274</v>
@@ -33728,13 +33728,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H36" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I36" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J36" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K36" t="n">
         <v>164.2283813594519</v>
@@ -33743,10 +33743,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M36" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N36" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O36" t="n">
         <v>241.9778092621937</v>
@@ -33758,7 +33758,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R36" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S36" t="n">
         <v>18.89092525347742</v>
@@ -33767,7 +33767,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H37" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I37" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J37" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K37" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L37" t="n">
         <v>126.7651394859745</v>
@@ -33828,16 +33828,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O37" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P37" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R37" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S37" t="n">
         <v>14.85928655953363</v>
@@ -33846,7 +33846,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,25 +33886,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H38" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I38" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J38" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K38" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L38" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M38" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N38" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O38" t="n">
         <v>320.2679641646207</v>
@@ -33913,13 +33913,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R38" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S38" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T38" t="n">
         <v>8.320870165697274</v>
@@ -33965,13 +33965,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H39" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I39" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J39" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K39" t="n">
         <v>164.2283813594519</v>
@@ -33980,10 +33980,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M39" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N39" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O39" t="n">
         <v>241.9778092621937</v>
@@ -33995,7 +33995,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R39" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S39" t="n">
         <v>18.89092525347742</v>
@@ -34004,7 +34004,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H40" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I40" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J40" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K40" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L40" t="n">
         <v>126.7651394859745</v>
@@ -34065,16 +34065,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O40" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P40" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R40" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S40" t="n">
         <v>14.85928655953363</v>
@@ -34083,7 +34083,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,25 +34123,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H41" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I41" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J41" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K41" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L41" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M41" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N41" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O41" t="n">
         <v>320.2679641646207</v>
@@ -34150,13 +34150,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R41" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S41" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T41" t="n">
         <v>8.320870165697274</v>
@@ -34202,13 +34202,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H42" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I42" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J42" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K42" t="n">
         <v>164.2283813594519</v>
@@ -34217,10 +34217,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M42" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N42" t="n">
-        <v>264.5130995527647</v>
+        <v>264.5130995527646</v>
       </c>
       <c r="O42" t="n">
         <v>241.9778092621937</v>
@@ -34232,7 +34232,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R42" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S42" t="n">
         <v>18.89092525347742</v>
@@ -34241,7 +34241,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H43" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I43" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J43" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K43" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L43" t="n">
         <v>126.7651394859745</v>
@@ -34302,16 +34302,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O43" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P43" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R43" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S43" t="n">
         <v>14.85928655953363</v>
@@ -34320,7 +34320,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,25 +34360,25 @@
         <v>1.90082699387716</v>
       </c>
       <c r="H44" t="n">
-        <v>19.46684445104448</v>
+        <v>19.46684445104447</v>
       </c>
       <c r="I44" t="n">
-        <v>73.28163268144931</v>
+        <v>73.2816326814493</v>
       </c>
       <c r="J44" t="n">
         <v>161.3303150715818</v>
       </c>
       <c r="K44" t="n">
-        <v>241.7923217224021</v>
+        <v>241.792321722402</v>
       </c>
       <c r="L44" t="n">
-        <v>299.9647558362703</v>
+        <v>299.9647558362702</v>
       </c>
       <c r="M44" t="n">
         <v>333.7685878886332</v>
       </c>
       <c r="N44" t="n">
-        <v>339.1693125849868</v>
+        <v>339.1693125849867</v>
       </c>
       <c r="O44" t="n">
         <v>320.2679641646207</v>
@@ -34387,13 +34387,13 @@
         <v>273.3412977532782</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.2679310350524</v>
+        <v>205.2679310350523</v>
       </c>
       <c r="R44" t="n">
         <v>119.4028236541363</v>
       </c>
       <c r="S44" t="n">
-        <v>43.31509512297584</v>
+        <v>43.31509512297583</v>
       </c>
       <c r="T44" t="n">
         <v>8.320870165697274</v>
@@ -34439,13 +34439,13 @@
         <v>1.017032103374936</v>
       </c>
       <c r="H45" t="n">
-        <v>9.822388998384255</v>
+        <v>9.822388998384254</v>
       </c>
       <c r="I45" t="n">
         <v>35.01623689251426</v>
       </c>
       <c r="J45" t="n">
-        <v>96.08723043333117</v>
+        <v>96.08723043333116</v>
       </c>
       <c r="K45" t="n">
         <v>164.2283813594519</v>
@@ -34454,10 +34454,10 @@
         <v>220.8253257788431</v>
       </c>
       <c r="M45" t="n">
-        <v>257.6927395261845</v>
+        <v>257.6927395261844</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0324812643602</v>
+        <v>261.0324812643601</v>
       </c>
       <c r="O45" t="n">
         <v>241.9778092621937</v>
@@ -34469,7 +34469,7 @@
         <v>129.8232558623866</v>
       </c>
       <c r="R45" t="n">
-        <v>63.14520375164739</v>
+        <v>63.14520375164738</v>
       </c>
       <c r="S45" t="n">
         <v>18.89092525347742</v>
@@ -34478,7 +34478,7 @@
         <v>4.099353083340202</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06691000680098268</v>
+        <v>0.06691000680098266</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8526455511469482</v>
+        <v>0.8526455511469481</v>
       </c>
       <c r="H46" t="n">
-        <v>7.5807940820156</v>
+        <v>7.580794082015599</v>
       </c>
       <c r="I46" t="n">
         <v>25.64137711994641</v>
       </c>
       <c r="J46" t="n">
-        <v>60.28204046608924</v>
+        <v>60.28204046608923</v>
       </c>
       <c r="K46" t="n">
-        <v>99.06191039689087</v>
+        <v>99.06191039689085</v>
       </c>
       <c r="L46" t="n">
         <v>126.7651394859745</v>
@@ -34539,16 +34539,16 @@
         <v>130.4780232950599</v>
       </c>
       <c r="O46" t="n">
-        <v>120.5175729930251</v>
+        <v>120.517572993025</v>
       </c>
       <c r="P46" t="n">
         <v>103.1236037496272</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.39743792376855</v>
+        <v>71.39743792376854</v>
       </c>
       <c r="R46" t="n">
-        <v>38.33804450884368</v>
+        <v>38.33804450884367</v>
       </c>
       <c r="S46" t="n">
         <v>14.85928655953363</v>
@@ -34557,7 +34557,7 @@
         <v>3.643121900355141</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04650793915346996</v>
+        <v>0.04650793915346995</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>149.3810257169693</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.18932888443452</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="L11" t="n">
         <v>64.19834086628305</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4223546613605</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="N11" t="n">
         <v>109.7562489883958</v>
@@ -35425,10 +35425,10 @@
         <v>90.16975274293398</v>
       </c>
       <c r="P11" t="n">
-        <v>42.1083019980087</v>
+        <v>143.9203043965334</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.2772318205076</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>208.2289693423736</v>
       </c>
       <c r="L12" t="n">
-        <v>82.27094599896893</v>
+        <v>207.9278407860912</v>
       </c>
       <c r="M12" t="n">
         <v>115.5587056041662</v>
@@ -35504,7 +35504,7 @@
         <v>99.38156481774928</v>
       </c>
       <c r="P12" t="n">
-        <v>185.8910124462041</v>
+        <v>60.23411765908196</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L13" t="n">
         <v>154.3551647462906</v>
@@ -35729,22 +35729,22 @@
         <v>26.38694238509291</v>
       </c>
       <c r="L15" t="n">
-        <v>82.27094599896893</v>
+        <v>189.8510982311576</v>
       </c>
       <c r="M15" t="n">
-        <v>208.2289693423736</v>
+        <v>115.5587056041662</v>
       </c>
       <c r="N15" t="n">
-        <v>208.2289693423736</v>
+        <v>133.1713874694314</v>
       </c>
       <c r="O15" t="n">
-        <v>208.2289693423736</v>
+        <v>99.38156481774928</v>
       </c>
       <c r="P15" t="n">
-        <v>91.1577892677108</v>
+        <v>60.23411765908196</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>199.9187695122142</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>149.3810257169693</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>21.7024706774215</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="L17" t="n">
-        <v>64.19834086628305</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="M17" t="n">
-        <v>151.9092128683736</v>
+        <v>166.0103432648079</v>
       </c>
       <c r="N17" t="n">
         <v>109.7562489883958</v>
       </c>
       <c r="O17" t="n">
-        <v>90.16975274293398</v>
+        <v>90.16975274293392</v>
       </c>
       <c r="P17" t="n">
         <v>42.1083019980087</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.2772318205076</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>95.34063910707332</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.38694238509291</v>
+        <v>26.38694238509288</v>
       </c>
       <c r="L18" t="n">
-        <v>82.27094599896893</v>
+        <v>208.2289693423736</v>
       </c>
       <c r="M18" t="n">
         <v>208.2289693423736</v>
       </c>
       <c r="N18" t="n">
-        <v>208.2289693423736</v>
+        <v>133.1713874694313</v>
       </c>
       <c r="O18" t="n">
-        <v>143.8120018439292</v>
+        <v>188.2521994805401</v>
       </c>
       <c r="P18" t="n">
-        <v>60.23411765908196</v>
+        <v>60.23411765908193</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L19" t="n">
         <v>154.3551647462906</v>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>345.8478832485862</v>
+        <v>58.84140699222462</v>
       </c>
       <c r="L20" t="n">
-        <v>307.3853186102702</v>
+        <v>481.8595554167334</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4223546613605</v>
+        <v>537.7533022827422</v>
       </c>
       <c r="N20" t="n">
-        <v>537.7533022827419</v>
+        <v>537.7533022827422</v>
       </c>
       <c r="O20" t="n">
         <v>470.9699340056793</v>
       </c>
       <c r="P20" t="n">
-        <v>363.9070101694913</v>
+        <v>42.1083019980087</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>95.34063910707332</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.38694238509291</v>
+        <v>26.38694238509288</v>
       </c>
       <c r="L21" t="n">
-        <v>82.27094599896893</v>
+        <v>453.1112913024281</v>
       </c>
       <c r="M21" t="n">
-        <v>515.5932028107544</v>
+        <v>444.7566419154665</v>
       </c>
       <c r="N21" t="n">
-        <v>537.7533022827419</v>
+        <v>133.1713874694313</v>
       </c>
       <c r="O21" t="n">
-        <v>493.2438840944788</v>
+        <v>493.2438840944787</v>
       </c>
       <c r="P21" t="n">
         <v>378.6968862990191</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>199.9187695122142</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L22" t="n">
         <v>154.3551647462906</v>
@@ -36361,7 +36361,7 @@
         <v>345.8478832485862</v>
       </c>
       <c r="L23" t="n">
-        <v>481.8595554167335</v>
+        <v>481.8595554167334</v>
       </c>
       <c r="M23" t="n">
         <v>552.935888154193</v>
@@ -36370,13 +36370,13 @@
         <v>547.10317340038</v>
       </c>
       <c r="O23" t="n">
-        <v>470.9699340056793</v>
+        <v>351.1553382348312</v>
       </c>
       <c r="P23" t="n">
-        <v>48.8151825781353</v>
+        <v>363.9070101694913</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.2772318205076</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>95.3406391070733</v>
       </c>
       <c r="K24" t="n">
-        <v>123.9792557611382</v>
+        <v>26.38694238509288</v>
       </c>
       <c r="L24" t="n">
         <v>453.1112913024281</v>
@@ -36446,16 +36446,16 @@
         <v>581.263769354166</v>
       </c>
       <c r="N24" t="n">
-        <v>612.513761812985</v>
+        <v>612.5137618129849</v>
       </c>
       <c r="O24" t="n">
-        <v>493.2438840944788</v>
+        <v>493.2438840944787</v>
       </c>
       <c r="P24" t="n">
         <v>378.6968862990191</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2.251674268972688</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L25" t="n">
         <v>154.3551647462906</v>
@@ -36595,10 +36595,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>345.8478832485862</v>
+        <v>30.75605565723012</v>
       </c>
       <c r="L26" t="n">
-        <v>481.8595554167335</v>
+        <v>481.8595554167334</v>
       </c>
       <c r="M26" t="n">
         <v>552.935888154193</v>
@@ -36610,10 +36610,10 @@
         <v>470.9699340056793</v>
       </c>
       <c r="P26" t="n">
-        <v>48.8151825781353</v>
+        <v>363.9070101694913</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.2772318205076</v>
+        <v>195.2772318205075</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.38694238509291</v>
+        <v>290.8521793976715</v>
       </c>
       <c r="L27" t="n">
         <v>453.1112913024281</v>
@@ -36683,16 +36683,16 @@
         <v>581.263769354166</v>
       </c>
       <c r="N27" t="n">
-        <v>612.513761812985</v>
+        <v>612.5137618129849</v>
       </c>
       <c r="O27" t="n">
-        <v>493.2438840944788</v>
+        <v>493.2438840944787</v>
       </c>
       <c r="P27" t="n">
-        <v>378.6968862990191</v>
+        <v>211.8239626624863</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.59231337604544</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L28" t="n">
         <v>154.3551647462906</v>
@@ -36832,10 +36832,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>226.0332874777376</v>
+        <v>226.0332874777377</v>
       </c>
       <c r="L29" t="n">
-        <v>481.8595554167335</v>
+        <v>481.8595554167334</v>
       </c>
       <c r="M29" t="n">
         <v>552.935888154193</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>26.38694238509291</v>
+        <v>290.8521793976715</v>
       </c>
       <c r="L30" t="n">
         <v>453.1112913024281</v>
       </c>
       <c r="M30" t="n">
-        <v>478.9373132179977</v>
+        <v>581.263769354166</v>
       </c>
       <c r="N30" t="n">
-        <v>612.513761812985</v>
+        <v>612.5137618129849</v>
       </c>
       <c r="O30" t="n">
-        <v>493.2438840944788</v>
+        <v>493.2438840944787</v>
       </c>
       <c r="P30" t="n">
-        <v>378.6968862990191</v>
+        <v>211.8239626624863</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.9187695122142</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L31" t="n">
         <v>154.3551647462906</v>
@@ -37069,10 +37069,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>226.0332874777376</v>
+        <v>345.8478832485862</v>
       </c>
       <c r="L32" t="n">
-        <v>481.8595554167335</v>
+        <v>481.8595554167334</v>
       </c>
       <c r="M32" t="n">
         <v>552.935888154193</v>
@@ -37084,7 +37084,7 @@
         <v>470.9699340056793</v>
       </c>
       <c r="P32" t="n">
-        <v>363.9070101694913</v>
+        <v>244.0924143986433</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>95.3406391070733</v>
       </c>
       <c r="K33" t="n">
-        <v>123.9792557611382</v>
+        <v>199.5601924453102</v>
       </c>
       <c r="L33" t="n">
-        <v>453.1112913024281</v>
+        <v>82.2709459989689</v>
       </c>
       <c r="M33" t="n">
         <v>581.263769354166</v>
       </c>
       <c r="N33" t="n">
-        <v>612.513761812985</v>
+        <v>612.5137618129849</v>
       </c>
       <c r="O33" t="n">
-        <v>493.2438840944788</v>
+        <v>493.2438840944787</v>
       </c>
       <c r="P33" t="n">
         <v>378.6968862990191</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>199.9187695122142</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L34" t="n">
         <v>154.3551647462906</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>21.7024706774215</v>
+        <v>21.70247067742147</v>
       </c>
       <c r="L35" t="n">
-        <v>459.2151021213951</v>
+        <v>376.8501839057064</v>
       </c>
       <c r="M35" t="n">
-        <v>103.4223546613605</v>
+        <v>459.215102121395</v>
       </c>
       <c r="N35" t="n">
-        <v>459.2151021213951</v>
+        <v>459.215102121395</v>
       </c>
       <c r="O35" t="n">
-        <v>410.8442231942585</v>
+        <v>459.215102121395</v>
       </c>
       <c r="P35" t="n">
-        <v>363.9070101694913</v>
+        <v>42.1083019980087</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>290.8521793976715</v>
+        <v>26.38694238509288</v>
       </c>
       <c r="L36" t="n">
         <v>453.1112913024281</v>
       </c>
       <c r="M36" t="n">
-        <v>115.5587056041662</v>
+        <v>401.5144760196372</v>
       </c>
       <c r="N36" t="n">
-        <v>133.1713874694314</v>
+        <v>459.215102121395</v>
       </c>
       <c r="O36" t="n">
-        <v>446.9158128726056</v>
+        <v>99.38156481774925</v>
       </c>
       <c r="P36" t="n">
         <v>378.6968862990191</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L37" t="n">
         <v>154.3551647462906</v>
@@ -37546,19 +37546,19 @@
         <v>345.8478832485862</v>
       </c>
       <c r="L38" t="n">
-        <v>459.2151021213951</v>
+        <v>421.7501207130029</v>
       </c>
       <c r="M38" t="n">
-        <v>103.4223546613605</v>
+        <v>459.215102121395</v>
       </c>
       <c r="N38" t="n">
-        <v>455.744160001555</v>
+        <v>459.215102121395</v>
       </c>
       <c r="O38" t="n">
-        <v>90.16975274293398</v>
+        <v>90.16975274293392</v>
       </c>
       <c r="P38" t="n">
-        <v>363.9070101694913</v>
+        <v>42.1083019980087</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>95.3406391070733</v>
       </c>
       <c r="K39" t="n">
-        <v>26.38694238509291</v>
+        <v>290.8521793976715</v>
       </c>
       <c r="L39" t="n">
         <v>453.1112913024281</v>
       </c>
       <c r="M39" t="n">
-        <v>459.2151021213951</v>
+        <v>167.8335450397349</v>
       </c>
       <c r="N39" t="n">
-        <v>459.2151021213951</v>
+        <v>133.1713874694313</v>
       </c>
       <c r="O39" t="n">
-        <v>360.1437073559289</v>
+        <v>99.38156481774925</v>
       </c>
       <c r="P39" t="n">
-        <v>60.23411765908196</v>
+        <v>378.6968862990191</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>199.9187695122142</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L40" t="n">
         <v>154.3551647462906</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>345.8478832485862</v>
+        <v>21.70247067742147</v>
       </c>
       <c r="L41" t="n">
-        <v>459.2151021213951</v>
+        <v>459.2151021213955</v>
       </c>
       <c r="M41" t="n">
-        <v>103.4223546613605</v>
+        <v>459.2151021213955</v>
       </c>
       <c r="N41" t="n">
-        <v>109.7562489883958</v>
+        <v>424.0968251126858</v>
       </c>
       <c r="O41" t="n">
-        <v>436.157663756093</v>
+        <v>90.16975274293392</v>
       </c>
       <c r="P41" t="n">
         <v>363.9070101694913</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>95.3406391070733</v>
       </c>
       <c r="K42" t="n">
-        <v>26.38694238509291</v>
+        <v>26.38694238509288</v>
       </c>
       <c r="L42" t="n">
         <v>453.1112913024281</v>
       </c>
       <c r="M42" t="n">
-        <v>115.5587056041662</v>
+        <v>115.5587056041661</v>
       </c>
       <c r="N42" t="n">
-        <v>459.2151021213951</v>
+        <v>133.1713874694313</v>
       </c>
       <c r="O42" t="n">
-        <v>385.3373352332207</v>
+        <v>416.1216412658986</v>
       </c>
       <c r="P42" t="n">
         <v>378.6968862990191</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>199.9187695122142</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>76.79241857100801</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L43" t="n">
         <v>154.3551647462906</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>103.868046389104</v>
+        <v>21.70247067742147</v>
       </c>
       <c r="L44" t="n">
-        <v>64.19834086628305</v>
+        <v>64.19834086628299</v>
       </c>
       <c r="M44" t="n">
         <v>103.4223546613605</v>
@@ -38029,13 +38029,13 @@
         <v>109.7562489883958</v>
       </c>
       <c r="O44" t="n">
-        <v>90.16975274293398</v>
+        <v>90.16975274293392</v>
       </c>
       <c r="P44" t="n">
         <v>42.1083019980087</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>82.16557571168237</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.38694238509291</v>
+        <v>26.38694238509288</v>
       </c>
       <c r="L45" t="n">
-        <v>82.27094599896893</v>
+        <v>82.2709459989689</v>
       </c>
       <c r="M45" t="n">
-        <v>115.5587056041662</v>
+        <v>115.5587056041661</v>
       </c>
       <c r="N45" t="n">
         <v>129.6907691810268</v>
       </c>
       <c r="O45" t="n">
-        <v>99.38156481774928</v>
+        <v>99.38156481774925</v>
       </c>
       <c r="P45" t="n">
-        <v>60.23411765908196</v>
+        <v>60.23411765908193</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>76.792418571008</v>
       </c>
       <c r="L46" t="n">
-        <v>24.04857508848484</v>
+        <v>129.6907691810268</v>
       </c>
       <c r="M46" t="n">
         <v>129.6907691810268</v>
       </c>
       <c r="N46" t="n">
-        <v>129.6907691810268</v>
+        <v>76.94692569850356</v>
       </c>
       <c r="O46" t="n">
-        <v>129.6907691810268</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>100.4021630145207</v>
